--- a/results/logistic/dilemma/seed-100/0.1/percents/scores-25.xlsx
+++ b/results/logistic/dilemma/seed-100/0.1/percents/scores-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="127">
   <si>
     <t>0.95-negative</t>
   </si>
@@ -49,166 +49,166 @@
     <t>terrifying</t>
   </si>
   <si>
+    <t>fake</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>seriously</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>few</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>down</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>wrong</t>
+    <t>[UNK]</t>
+  </si>
+  <si>
+    <t>across</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>bias</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>mad</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>dangerous</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>seriously</t>
+    <t>drama</t>
   </si>
   <si>
     <t>dark</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>terrible</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>brain</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>mad</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>ha</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t>drama</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>kids</t>
   </si>
   <si>
     <t>truth</t>
   </si>
   <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>ve</t>
-  </si>
-  <si>
-    <t>industries</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>we</t>
+    <t>some</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>drugs</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
   <si>
     <t>s</t>
   </si>
   <si>
-    <t>and</t>
+    <t>i</t>
   </si>
   <si>
     <t>,</t>
@@ -235,136 +235,148 @@
     <t>great</t>
   </si>
   <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>own</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>brilliant</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>wondered</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>goals</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>isn</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>such</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>pursuing</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>wo</t>
-  </si>
-  <si>
-    <t>feed</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>points</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ironic</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>mind</t>
-  </si>
-  <si>
-    <t>real</t>
+    <t>has</t>
+  </si>
+  <si>
+    <t>documentary</t>
   </si>
   <si>
     <t>!</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>has</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>it</t>
+    <t>of</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
   <si>
     <t>0.8-negative</t>
@@ -754,22 +766,22 @@
         <v>68</v>
       </c>
       <c r="S1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AB1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AT1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="BC1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="BL1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -971,13 +983,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.06076148840088805</v>
+        <v>0.05169641930361638</v>
       </c>
       <c r="C3">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -989,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K3">
-        <v>0.1204956463180594</v>
+        <v>0.08143461219165073</v>
       </c>
       <c r="L3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1013,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T3">
-        <v>0.02962247677335928</v>
+        <v>0.02697736972360773</v>
       </c>
       <c r="U3">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="V3">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -1037,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AC3">
-        <v>0.04512239094846893</v>
+        <v>0.03187641205116833</v>
       </c>
       <c r="AD3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AE3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1061,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL3">
-        <v>0.02452453194360249</v>
+        <v>0.02296629939109784</v>
       </c>
       <c r="AM3">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="AN3">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="AO3">
         <v>1</v>
@@ -1085,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AT3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AU3">
-        <v>0.03102536095289761</v>
+        <v>0.02566763079767577</v>
       </c>
       <c r="AV3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -1109,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD3">
-        <v>0.02243286631721257</v>
+        <v>0.02132346298104123</v>
       </c>
       <c r="BE3">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="BF3">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="BG3">
         <v>1</v>
@@ -1133,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="BL3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="BM3">
-        <v>0.02849876233073141</v>
+        <v>0.02403123917230663</v>
       </c>
       <c r="BN3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BO3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -1157,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1165,13 +1177,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0307319677506234</v>
+        <v>0.02864600999947876</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1183,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K4">
-        <v>0.06113367854212615</v>
+        <v>0.04921584042543981</v>
       </c>
       <c r="L4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1207,19 +1219,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T4">
-        <v>0.0213269516686363</v>
+        <v>0.02071515968350417</v>
       </c>
       <c r="U4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="V4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1231,19 +1243,19 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AC4">
-        <v>0.03670027168626366</v>
+        <v>0.02950903237471503</v>
       </c>
       <c r="AD4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1255,19 +1267,19 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL4">
-        <v>0.01978720295462899</v>
+        <v>0.01942824942787244</v>
       </c>
       <c r="AM4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AN4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO4">
         <v>1</v>
@@ -1279,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AT4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AU4">
-        <v>0.0293832565515245</v>
+        <v>0.02474173973994158</v>
       </c>
       <c r="AV4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX4">
         <v>0</v>
@@ -1303,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BD4">
-        <v>0.01915545044142638</v>
+        <v>0.01890116242885088</v>
       </c>
       <c r="BE4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BF4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BG4">
         <v>1</v>
@@ -1327,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="BL4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="BM4">
-        <v>0.0270750591794413</v>
+        <v>0.023239079340104</v>
       </c>
       <c r="BN4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BO4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BP4">
         <v>0</v>
@@ -1351,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1359,13 +1371,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.02353155056769178</v>
+        <v>0.02737094151216209</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1377,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K5">
-        <v>0.05688898655850156</v>
+        <v>0.04636551338076116</v>
       </c>
       <c r="L5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1401,19 +1413,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T5">
-        <v>0.01934353001316006</v>
+        <v>0.02031644603439217</v>
       </c>
       <c r="U5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="V5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W5">
         <v>1</v>
@@ -1425,19 +1437,19 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AC5">
-        <v>0.03456762336255834</v>
+        <v>0.02826920953396989</v>
       </c>
       <c r="AD5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1449,19 +1461,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL5">
-        <v>0.01865788533091153</v>
+        <v>0.01917173869319276</v>
       </c>
       <c r="AM5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AN5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AO5">
         <v>1</v>
@@ -1473,43 +1485,43 @@
         <v>0</v>
       </c>
       <c r="AR5">
+        <v>67</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU5">
+        <v>0.02372528696980279</v>
+      </c>
+      <c r="AV5">
+        <v>11</v>
+      </c>
+      <c r="AW5">
+        <v>11</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
+      </c>
+      <c r="AZ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA5">
         <v>39</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU5">
-        <v>0.02761617503560298</v>
-      </c>
-      <c r="AV5">
-        <v>33</v>
-      </c>
-      <c r="AW5">
-        <v>33</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>1</v>
-      </c>
-      <c r="AZ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>1065</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD5">
-        <v>0.01837656816062652</v>
+        <v>0.0187028945336328</v>
       </c>
       <c r="BE5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BF5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BG5">
         <v>1</v>
@@ -1521,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="BL5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="BM5">
-        <v>0.02602607710258848</v>
+        <v>0.02265651374228748</v>
       </c>
       <c r="BN5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BO5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BP5">
         <v>0</v>
@@ -1545,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1553,13 +1565,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02238510750715939</v>
+        <v>0.02626441753837809</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1571,19 +1583,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K6">
-        <v>0.04607474135417147</v>
+        <v>0.03910528257470273</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1595,19 +1607,19 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T6">
-        <v>0.01907331464825069</v>
+        <v>0.02010597911728035</v>
       </c>
       <c r="U6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -1619,19 +1631,19 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AC6">
-        <v>0.03106452446247081</v>
+        <v>0.02623421398826544</v>
       </c>
       <c r="AD6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1643,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AL6">
-        <v>0.01853112218934254</v>
+        <v>0.01910667169789511</v>
       </c>
       <c r="AM6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AN6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AO6">
         <v>1</v>
@@ -1667,19 +1679,19 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AU6">
-        <v>0.02757824678325203</v>
+        <v>0.02285934520573488</v>
       </c>
       <c r="AV6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX6">
         <v>0</v>
@@ -1691,19 +1703,19 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="BD6">
-        <v>0.01830866287150797</v>
+        <v>0.01869737979391135</v>
       </c>
       <c r="BE6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BF6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BG6">
         <v>1</v>
@@ -1715,19 +1727,19 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="BL6" s="1" t="s">
         <v>73</v>
       </c>
       <c r="BM6">
-        <v>0.02582342758202134</v>
+        <v>0.02207633456211135</v>
       </c>
       <c r="BN6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BO6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BP6">
         <v>0</v>
@@ -1739,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1747,13 +1759,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.02111461285347528</v>
+        <v>0.02265479226815591</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1765,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K7">
-        <v>0.04595399728206181</v>
+        <v>0.03412712395194919</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1789,19 +1801,19 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T7">
-        <v>0.01866348310367096</v>
+        <v>0.0191506188736655</v>
       </c>
       <c r="U7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1813,19 +1825,19 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>73</v>
       </c>
       <c r="AC7">
-        <v>0.03088245867184009</v>
+        <v>0.02469744940684596</v>
       </c>
       <c r="AD7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1837,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AL7">
-        <v>0.01826219470105411</v>
+        <v>0.01858200939306564</v>
       </c>
       <c r="AM7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO7">
         <v>1</v>
@@ -1861,19 +1873,19 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AU7">
-        <v>0.0273819383910604</v>
+        <v>0.02243191275264139</v>
       </c>
       <c r="AV7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AW7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX7">
         <v>0</v>
@@ -1885,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="BC7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="BD7">
-        <v>0.01809754773329504</v>
+        <v>0.01834912084203185</v>
       </c>
       <c r="BE7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG7">
         <v>1</v>
@@ -1909,13 +1921,13 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="BL7" s="1" t="s">
         <v>74</v>
       </c>
       <c r="BM7">
-        <v>0.0249822515330558</v>
+        <v>0.02179188621069873</v>
       </c>
       <c r="BN7">
         <v>8</v>
@@ -1933,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -1941,13 +1953,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.02103320399546946</v>
+        <v>0.02264695298845672</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1959,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K8">
-        <v>0.03865997962869832</v>
+        <v>0.03164210360386796</v>
       </c>
       <c r="L8">
         <v>8</v>
@@ -1983,19 +1995,19 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T8">
-        <v>0.01857185998576229</v>
+        <v>0.019141863211712</v>
       </c>
       <c r="U8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -2007,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>74</v>
       </c>
       <c r="AC8">
-        <v>0.02841961335167357</v>
+        <v>0.02393436420096807</v>
       </c>
       <c r="AD8">
         <v>8</v>
@@ -2031,19 +2043,19 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AL8">
-        <v>0.01816889934851949</v>
+        <v>0.01857310503309438</v>
       </c>
       <c r="AM8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO8">
         <v>1</v>
@@ -2055,13 +2067,13 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AU8">
-        <v>0.02604118267101128</v>
+        <v>0.02236545160535596</v>
       </c>
       <c r="AV8">
         <v>8</v>
@@ -2079,19 +2091,19 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD8">
-        <v>0.01803859305974488</v>
+        <v>0.0183401555789855</v>
       </c>
       <c r="BE8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BF8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG8">
         <v>1</v>
@@ -2103,19 +2115,19 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BL8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="BM8">
-        <v>0.02310756292919785</v>
+        <v>0.0217241913465934</v>
       </c>
       <c r="BN8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BO8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BP8">
         <v>0</v>
@@ -2127,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -2135,13 +2147,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.02098668464803757</v>
+        <v>0.02250584595387124</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2153,19 +2165,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K9">
-        <v>0.03075016720757553</v>
+        <v>0.03159339604432164</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2177,19 +2189,19 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T9">
-        <v>0.01851950391838591</v>
+        <v>0.01898426129654905</v>
       </c>
       <c r="U9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -2201,19 +2213,19 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="AB9" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AC9">
-        <v>0.02502823249929038</v>
+        <v>0.02387079918298577</v>
       </c>
       <c r="AD9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2225,43 +2237,43 @@
         <v>0</v>
       </c>
       <c r="AI9">
+        <v>28</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL9">
+        <v>0.01841282655361174</v>
+      </c>
+      <c r="AM9">
+        <v>7</v>
+      </c>
+      <c r="AN9">
+        <v>7</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR9">
         <v>59</v>
       </c>
-      <c r="AK9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL9">
-        <v>0.01814431683115508</v>
-      </c>
-      <c r="AM9">
-        <v>5</v>
-      </c>
-      <c r="AN9">
-        <v>5</v>
-      </c>
-      <c r="AO9">
-        <v>1</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>21</v>
-      </c>
       <c r="AT9" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AU9">
-        <v>0.02369925415078487</v>
+        <v>0.02221614907581175</v>
       </c>
       <c r="AV9">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="AW9">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="AX9">
         <v>0</v>
@@ -2273,43 +2285,43 @@
         <v>0</v>
       </c>
       <c r="BA9">
+        <v>1067</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD9">
+        <v>0.01817878084415111</v>
+      </c>
+      <c r="BE9">
+        <v>7</v>
+      </c>
+      <c r="BF9">
+        <v>7</v>
+      </c>
+      <c r="BG9">
+        <v>1</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
         <v>59</v>
       </c>
-      <c r="BC9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="BD9">
-        <v>0.01800356626982685</v>
-      </c>
-      <c r="BE9">
-        <v>6</v>
-      </c>
-      <c r="BF9">
-        <v>6</v>
-      </c>
-      <c r="BG9">
-        <v>1</v>
-      </c>
-      <c r="BH9">
-        <v>0</v>
-      </c>
-      <c r="BI9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ9">
-        <v>60</v>
-      </c>
       <c r="BL9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BM9">
-        <v>0.02304161156570757</v>
+        <v>0.02145341189017206</v>
       </c>
       <c r="BN9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BO9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BP9">
         <v>0</v>
@@ -2321,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2329,7 +2341,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.01997592301751487</v>
+        <v>0.02015561061156734</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -2347,19 +2359,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K10">
-        <v>0.03062942313546587</v>
+        <v>0.03139856580613635</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2371,13 +2383,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T10">
-        <v>0.01840199374999098</v>
+        <v>0.01841010337813922</v>
       </c>
       <c r="U10">
         <v>5</v>
@@ -2395,19 +2407,19 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AB10" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AC10">
-        <v>0.02484616670865966</v>
+        <v>0.02361653911105657</v>
       </c>
       <c r="AD10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -2419,19 +2431,19 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL10">
-        <v>0.0181155877184997</v>
+        <v>0.01812686626351944</v>
       </c>
       <c r="AM10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO10">
         <v>1</v>
@@ -2443,19 +2455,19 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="AT10" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AU10">
-        <v>0.02350294575859324</v>
+        <v>0.02209960701621426</v>
       </c>
       <c r="AV10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX10">
         <v>0</v>
@@ -2467,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="BA10">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="BC10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD10">
-        <v>0.01797593875076609</v>
+        <v>0.01801085926139699</v>
       </c>
       <c r="BE10">
         <v>5</v>
@@ -2491,19 +2503,19 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BM10">
-        <v>0.0229049134086307</v>
+        <v>0.02144212941282117</v>
       </c>
       <c r="BN10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BO10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BP10">
         <v>0</v>
@@ -2515,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="BS10">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:71">
@@ -2523,7 +2535,7 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.019921650445511</v>
+        <v>0.02015169097171774</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -2547,13 +2559,13 @@
         <v>77</v>
       </c>
       <c r="K11">
-        <v>0.0273144605070857</v>
+        <v>0.03139044787954529</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2565,13 +2577,13 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T11">
-        <v>0.0183409116713852</v>
+        <v>0.01840572554716247</v>
       </c>
       <c r="U11">
         <v>5</v>
@@ -2595,13 +2607,13 @@
         <v>77</v>
       </c>
       <c r="AC11">
-        <v>0.02411542497281088</v>
+        <v>0.02360594494139285</v>
       </c>
       <c r="AD11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -2613,13 +2625,13 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="AK11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AL11">
-        <v>0.01808211992946534</v>
+        <v>0.0181224140835338</v>
       </c>
       <c r="AM11">
         <v>5</v>
@@ -2643,38 +2655,38 @@
         <v>77</v>
       </c>
       <c r="AU11">
-        <v>0.02337241597709566</v>
+        <v>0.02208853015833336</v>
       </c>
       <c r="AV11">
+        <v>8</v>
+      </c>
+      <c r="AW11">
+        <v>8</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>1</v>
+      </c>
+      <c r="AZ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>53</v>
+      </c>
+      <c r="BC11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD11">
+        <v>0.01800637662987381</v>
+      </c>
+      <c r="BE11">
         <v>5</v>
       </c>
-      <c r="AW11">
+      <c r="BF11">
         <v>5</v>
       </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>1</v>
-      </c>
-      <c r="AZ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA11">
-        <v>31</v>
-      </c>
-      <c r="BC11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="BD11">
-        <v>0.01794986257641646</v>
-      </c>
-      <c r="BE11">
-        <v>6</v>
-      </c>
-      <c r="BF11">
-        <v>6</v>
-      </c>
       <c r="BG11">
         <v>1</v>
       </c>
@@ -2685,13 +2697,13 @@
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BM11">
-        <v>0.022854070489877</v>
+        <v>0.02055255050889026</v>
       </c>
       <c r="BN11">
         <v>4</v>
@@ -2709,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -2717,7 +2729,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01878296060955059</v>
+        <v>0.01897853312049059</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -2735,19 +2747,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K12">
-        <v>0.02697637710517864</v>
+        <v>0.02162896087222352</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2759,13 +2771,13 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T12">
-        <v>0.01807942231770522</v>
+        <v>0.01812083550344593</v>
       </c>
       <c r="U12">
         <v>4</v>
@@ -2783,19 +2795,19 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>78</v>
       </c>
       <c r="AC12">
-        <v>0.02360564075904486</v>
+        <v>0.02078667585048308</v>
       </c>
       <c r="AD12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2807,13 +2819,13 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AL12">
-        <v>0.01796424205956631</v>
+        <v>0.01798166002848047</v>
       </c>
       <c r="AM12">
         <v>4</v>
@@ -2831,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AU12">
-        <v>0.02292779276809147</v>
+        <v>0.02062249121933925</v>
       </c>
       <c r="AV12">
         <v>4</v>
@@ -2855,13 +2867,13 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BC12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BD12">
-        <v>0.01791698407721594</v>
+        <v>0.01792465715425835</v>
       </c>
       <c r="BE12">
         <v>4</v>
@@ -2879,19 +2891,19 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BL12" s="1" t="s">
         <v>80</v>
       </c>
       <c r="BM12">
-        <v>0.02257036116108301</v>
+        <v>0.02011014747456519</v>
       </c>
       <c r="BN12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BO12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BP12">
         <v>0</v>
@@ -2903,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2911,7 +2923,7 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.01846120178981332</v>
+        <v>0.01857089057613254</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -2929,13 +2941,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K13">
-        <v>0.02380630736333007</v>
+        <v>0.02119059283630662</v>
       </c>
       <c r="L13">
         <v>4</v>
@@ -2953,13 +2965,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T13">
-        <v>0.01777866591349295</v>
+        <v>0.01783594545972938</v>
       </c>
       <c r="U13">
         <v>3</v>
@@ -2977,13 +2989,13 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB13" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AC13">
-        <v>0.02309337797195294</v>
+        <v>0.02021459068864238</v>
       </c>
       <c r="AD13">
         <v>4</v>
@@ -3001,13 +3013,13 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AL13">
-        <v>0.01780638046715244</v>
+        <v>0.01784090597342713</v>
       </c>
       <c r="AM13">
         <v>3</v>
@@ -3025,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AU13">
-        <v>0.02282275247895911</v>
+        <v>0.0200399827559131</v>
       </c>
       <c r="AV13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX13">
         <v>0</v>
@@ -3049,13 +3061,13 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="BC13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BD13">
-        <v>0.01781775163360799</v>
+        <v>0.01784293767864288</v>
       </c>
       <c r="BE13">
         <v>3</v>
@@ -3073,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BM13">
-        <v>0.02247419290811958</v>
+        <v>0.01994329673194224</v>
       </c>
       <c r="BN13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BO13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP13">
         <v>0</v>
@@ -3097,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -3105,7 +3117,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.01760938126301626</v>
+        <v>0.01780537526926344</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -3123,19 +3135,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K14">
-        <v>0.02363726566237654</v>
+        <v>0.01903028955186753</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -3147,13 +3159,13 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T14">
-        <v>0.01777430290787826</v>
+        <v>0.01781405630484564</v>
       </c>
       <c r="U14">
         <v>3</v>
@@ -3171,19 +3183,19 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AB14" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AC14">
-        <v>0.02283848586506994</v>
+        <v>0.01987527226931316</v>
       </c>
       <c r="AD14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -3195,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AL14">
-        <v>0.01780193783131746</v>
+        <v>0.01781864507349899</v>
       </c>
       <c r="AM14">
         <v>3</v>
@@ -3219,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="AR14">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AU14">
-        <v>0.02265296101902319</v>
+        <v>0.02002434089377043</v>
       </c>
       <c r="AV14">
         <v>4</v>
@@ -3243,13 +3255,13 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="BC14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD14">
-        <v>0.01781327632582379</v>
+        <v>0.01782052452102699</v>
       </c>
       <c r="BE14">
         <v>3</v>
@@ -3267,13 +3279,13 @@
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BL14" s="1" t="s">
         <v>81</v>
       </c>
       <c r="BM14">
-        <v>0.02209911075645845</v>
+        <v>0.01985065049549474</v>
       </c>
       <c r="BN14">
         <v>3</v>
@@ -3291,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3299,7 +3311,7 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.01760550465073027</v>
+        <v>0.01778577707001546</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -3317,13 +3329,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>81</v>
       </c>
       <c r="K15">
-        <v>0.01996007081766738</v>
+        <v>0.01884357724027329</v>
       </c>
       <c r="L15">
         <v>3</v>
@@ -3341,13 +3353,13 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T15">
-        <v>0.01775248787980476</v>
+        <v>0.01773525534726417</v>
       </c>
       <c r="U15">
         <v>3</v>
@@ -3365,13 +3377,13 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AB15" s="1" t="s">
         <v>81</v>
       </c>
       <c r="AC15">
-        <v>0.021561546757329</v>
+        <v>0.01963160636704768</v>
       </c>
       <c r="AD15">
         <v>3</v>
@@ -3389,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL15">
-        <v>0.01777972465214255</v>
+        <v>0.01773850583375767</v>
       </c>
       <c r="AM15">
         <v>3</v>
@@ -3413,13 +3425,13 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AT15" s="1" t="s">
         <v>81</v>
       </c>
       <c r="AU15">
-        <v>0.02193350606095073</v>
+        <v>0.0197852150246523</v>
       </c>
       <c r="AV15">
         <v>3</v>
@@ -3437,13 +3449,13 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="BC15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD15">
-        <v>0.01779089978690279</v>
+        <v>0.0177398371536098</v>
       </c>
       <c r="BE15">
         <v>3</v>
@@ -3461,19 +3473,19 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BM15">
-        <v>0.02209911075645845</v>
+        <v>0.01980313416845078</v>
       </c>
       <c r="BN15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP15">
         <v>0</v>
@@ -3485,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3493,7 +3505,7 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01758612158930032</v>
+        <v>0.01771522355272272</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -3511,13 +3523,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>82</v>
       </c>
       <c r="K16">
-        <v>0.01996007081766738</v>
+        <v>0.01865686492867906</v>
       </c>
       <c r="L16">
         <v>3</v>
@@ -3535,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T16">
-        <v>0.01772194684050188</v>
+        <v>0.01773525534726417</v>
       </c>
       <c r="U16">
         <v>3</v>
@@ -3559,13 +3571,13 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AB16" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AC16">
-        <v>0.021561546757329</v>
+        <v>0.01938794046478219</v>
       </c>
       <c r="AD16">
         <v>3</v>
@@ -3583,13 +3595,13 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL16">
-        <v>0.01774862620129767</v>
+        <v>0.01773850583375767</v>
       </c>
       <c r="AM16">
         <v>3</v>
@@ -3607,19 +3619,19 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU16">
-        <v>0.02193350606095073</v>
+        <v>0.01959039658705779</v>
       </c>
       <c r="AV16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX16">
         <v>0</v>
@@ -3631,13 +3643,13 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BD16">
-        <v>0.0177595726324134</v>
+        <v>0.0177398371536098</v>
       </c>
       <c r="BE16">
         <v>3</v>
@@ -3655,13 +3667,13 @@
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="BL16" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BM16">
-        <v>0.02170892016006075</v>
+        <v>0.01980313416845078</v>
       </c>
       <c r="BN16">
         <v>2</v>
@@ -3679,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3687,7 +3699,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.01755898530329838</v>
+        <v>0.01771522355272272</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -3705,44 +3717,44 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>83</v>
       </c>
       <c r="K17">
-        <v>0.01944087130759582</v>
+        <v>0.01652903335060418</v>
       </c>
       <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17">
+        <v>0.01773525534726417</v>
+      </c>
+      <c r="U17">
         <v>3</v>
       </c>
-      <c r="M17">
+      <c r="V17">
         <v>3</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>58</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T17">
-        <v>0.01771729285168524</v>
-      </c>
-      <c r="U17">
-        <v>4</v>
-      </c>
-      <c r="V17">
-        <v>4</v>
-      </c>
       <c r="W17">
         <v>1</v>
       </c>
@@ -3753,19 +3765,19 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="AB17" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AC17">
-        <v>0.0207786638576169</v>
+        <v>0.01909099872410784</v>
       </c>
       <c r="AD17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -3777,13 +3789,13 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AL17">
-        <v>0.01773085565795774</v>
+        <v>0.01773850583375767</v>
       </c>
       <c r="AM17">
         <v>3</v>
@@ -3801,13 +3813,13 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AT17" s="1" t="s">
         <v>84</v>
       </c>
       <c r="AU17">
-        <v>0.02129257445975491</v>
+        <v>0.01959039658705779</v>
       </c>
       <c r="AV17">
         <v>2</v>
@@ -3825,13 +3837,13 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="BD17">
-        <v>0.0177416714012766</v>
+        <v>0.0177398371536098</v>
       </c>
       <c r="BE17">
         <v>3</v>
@@ -3849,13 +3861,13 @@
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="BL17" s="1" t="s">
         <v>85</v>
       </c>
       <c r="BM17">
-        <v>0.02158733044772047</v>
+        <v>0.01974672178169634</v>
       </c>
       <c r="BN17">
         <v>2</v>
@@ -3873,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3881,7 +3893,7 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.01754347885415441</v>
+        <v>0.01771522355272272</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -3899,13 +3911,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>84</v>
       </c>
       <c r="K18">
-        <v>0.01633117360180208</v>
+        <v>0.01652903335060418</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -3923,19 +3935,19 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="T18">
-        <v>0.01770449481804308</v>
+        <v>0.01766554108186408</v>
       </c>
       <c r="U18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W18">
         <v>1</v>
@@ -3947,13 +3959,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="AB18" s="1" t="s">
         <v>84</v>
       </c>
       <c r="AC18">
-        <v>0.02035743396584034</v>
+        <v>0.01909099872410784</v>
       </c>
       <c r="AD18">
         <v>2</v>
@@ -3971,19 +3983,19 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL18">
-        <v>0.01773085565795774</v>
+        <v>0.01763782139857499</v>
       </c>
       <c r="AM18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO18">
         <v>1</v>
@@ -3995,13 +4007,13 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AT18" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AU18">
-        <v>0.02117478942443994</v>
+        <v>0.01953501229765327</v>
       </c>
       <c r="AV18">
         <v>2</v>
@@ -4019,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BC18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD18">
-        <v>0.0177416714012766</v>
+        <v>0.01769846136170292</v>
       </c>
       <c r="BE18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG18">
         <v>1</v>
@@ -4043,13 +4055,13 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BL18" s="1" t="s">
         <v>86</v>
       </c>
       <c r="BM18">
-        <v>0.02150627063949361</v>
+        <v>0.01969030939494189</v>
       </c>
       <c r="BN18">
         <v>2</v>
@@ -4067,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -4075,7 +4087,7 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.01754347885415441</v>
+        <v>0.01691169738355541</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -4093,13 +4105,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>85</v>
       </c>
       <c r="K19">
-        <v>0.01625872715853628</v>
+        <v>0.01648844371764891</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -4117,19 +4129,19 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T19">
-        <v>0.01770449481804308</v>
+        <v>0.01748976578233836</v>
       </c>
       <c r="U19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W19">
         <v>1</v>
@@ -4141,13 +4153,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AC19">
-        <v>0.02024819449146191</v>
+        <v>0.01903802787578926</v>
       </c>
       <c r="AD19">
         <v>2</v>
@@ -4165,44 +4177,44 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL19">
-        <v>0.01769975720711287</v>
+        <v>0.01763336921858936</v>
       </c>
       <c r="AM19">
+        <v>2</v>
+      </c>
+      <c r="AN19">
+        <v>2</v>
+      </c>
+      <c r="AO19">
+        <v>1</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>11</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU19">
+        <v>0.0195304472933915</v>
+      </c>
+      <c r="AV19">
         <v>3</v>
       </c>
-      <c r="AN19">
+      <c r="AW19">
         <v>3</v>
       </c>
-      <c r="AO19">
-        <v>1</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>32</v>
-      </c>
-      <c r="AT19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU19">
-        <v>0.02109626606756328</v>
-      </c>
-      <c r="AV19">
-        <v>2</v>
-      </c>
-      <c r="AW19">
-        <v>2</v>
-      </c>
       <c r="AX19">
         <v>0</v>
       </c>
@@ -4213,19 +4225,19 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="BC19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD19">
-        <v>0.0177103442467872</v>
+        <v>0.01769397873017975</v>
       </c>
       <c r="BE19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG19">
         <v>1</v>
@@ -4237,19 +4249,19 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="BM19">
-        <v>0.02122771781801975</v>
+        <v>0.01964517948553834</v>
       </c>
       <c r="BN19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP19">
         <v>0</v>
@@ -4261,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4269,13 +4281,13 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.01751634256815247</v>
+        <v>0.01657734246014194</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -4287,13 +4299,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>86</v>
       </c>
       <c r="K20">
-        <v>0.01621042952969242</v>
+        <v>0.01644785408469364</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -4311,19 +4323,19 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T20">
-        <v>0.01767395377874019</v>
+        <v>0.01748538795136161</v>
       </c>
       <c r="U20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W20">
         <v>1</v>
@@ -4335,13 +4347,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="AB20" s="1" t="s">
         <v>86</v>
       </c>
       <c r="AC20">
-        <v>0.02017536817520962</v>
+        <v>0.01898505702747067</v>
       </c>
       <c r="AD20">
         <v>2</v>
@@ -4359,103 +4371,103 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AK20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL20">
+        <v>0.01760220395868996</v>
+      </c>
+      <c r="AM20">
+        <v>2</v>
+      </c>
+      <c r="AN20">
+        <v>2</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>18</v>
+      </c>
+      <c r="AT20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU20">
+        <v>0.01947962800824874</v>
+      </c>
+      <c r="AV20">
+        <v>2</v>
+      </c>
+      <c r="AW20">
+        <v>2</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>1</v>
+      </c>
+      <c r="AZ20" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>21</v>
+      </c>
+      <c r="BC20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD20">
+        <v>0.01766260030951751</v>
+      </c>
+      <c r="BE20">
+        <v>2</v>
+      </c>
+      <c r="BF20">
+        <v>2</v>
+      </c>
+      <c r="BG20">
+        <v>1</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>18</v>
+      </c>
+      <c r="BL20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BM20">
+        <v>0.01962261453083656</v>
+      </c>
+      <c r="BN20">
+        <v>2</v>
+      </c>
+      <c r="BO20">
+        <v>2</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>1</v>
+      </c>
+      <c r="BR20" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS20">
         <v>27</v>
-      </c>
-      <c r="AL20">
-        <v>0.01768198666377294</v>
-      </c>
-      <c r="AM20">
-        <v>3</v>
-      </c>
-      <c r="AN20">
-        <v>3</v>
-      </c>
-      <c r="AO20">
-        <v>1</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>36</v>
-      </c>
-      <c r="AT20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU20">
-        <v>0.02108937997452674</v>
-      </c>
-      <c r="AV20">
-        <v>3</v>
-      </c>
-      <c r="AW20">
-        <v>3</v>
-      </c>
-      <c r="AX20">
-        <v>0</v>
-      </c>
-      <c r="AY20">
-        <v>1</v>
-      </c>
-      <c r="AZ20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA20">
-        <v>58</v>
-      </c>
-      <c r="BC20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BD20">
-        <v>0.01769244301565041</v>
-      </c>
-      <c r="BE20">
-        <v>3</v>
-      </c>
-      <c r="BF20">
-        <v>3</v>
-      </c>
-      <c r="BG20">
-        <v>1</v>
-      </c>
-      <c r="BH20">
-        <v>0</v>
-      </c>
-      <c r="BI20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ20">
-        <v>36</v>
-      </c>
-      <c r="BL20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM20">
-        <v>0.0212022963586429</v>
-      </c>
-      <c r="BN20">
-        <v>2</v>
-      </c>
-      <c r="BO20">
-        <v>2</v>
-      </c>
-      <c r="BP20">
-        <v>0</v>
-      </c>
-      <c r="BQ20">
-        <v>1</v>
-      </c>
-      <c r="BR20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS20">
-        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4463,13 +4475,13 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01750083611900851</v>
+        <v>0.01657342282029234</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -4481,13 +4493,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>87</v>
       </c>
       <c r="K21">
-        <v>0.01602931342152792</v>
+        <v>0.01641538237832943</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -4505,19 +4517,19 @@
         <v>0</v>
       </c>
       <c r="Q21">
+        <v>25</v>
+      </c>
+      <c r="S21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="T21">
-        <v>0.0176565017562814</v>
+        <v>0.01745474313452437</v>
       </c>
       <c r="U21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W21">
         <v>1</v>
@@ -4529,13 +4541,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="AB21" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC21">
-        <v>0.01990226948926354</v>
+        <v>0.01894268034881581</v>
       </c>
       <c r="AD21">
         <v>2</v>
@@ -4553,13 +4565,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AL21">
-        <v>0.0176174204238937</v>
+        <v>0.01759775177870433</v>
       </c>
       <c r="AM21">
         <v>2</v>
@@ -4577,13 +4589,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AT21" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AU21">
-        <v>0.02080180347927585</v>
+        <v>0.01943532057672513</v>
       </c>
       <c r="AV21">
         <v>2</v>
@@ -4601,13 +4613,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="BC21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="BD21">
-        <v>0.01768719203551064</v>
+        <v>0.01765811767799433</v>
       </c>
       <c r="BE21">
         <v>2</v>
@@ -4625,19 +4637,19 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="BM21">
-        <v>0.02113634499515262</v>
+        <v>0.01959115351642429</v>
       </c>
       <c r="BN21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP21">
         <v>0</v>
@@ -4649,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4657,13 +4669,13 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.0171480644009833</v>
+        <v>0.01654598534134516</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -4675,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>88</v>
       </c>
       <c r="K22">
-        <v>0.01565500679798796</v>
+        <v>0.01639914652514732</v>
       </c>
       <c r="L22">
         <v>2</v>
@@ -4699,13 +4711,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T22">
-        <v>0.0174473684699778</v>
+        <v>0.01745036530354762</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -4723,13 +4735,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AB22" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AC22">
-        <v>0.01933786553830831</v>
+        <v>0.01892149200948837</v>
       </c>
       <c r="AD22">
         <v>2</v>
@@ -4747,13 +4759,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="AK22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AL22">
-        <v>0.01759964988055377</v>
+        <v>0.0175932995987187</v>
       </c>
       <c r="AM22">
         <v>2</v>
@@ -4771,19 +4783,19 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AU22">
-        <v>0.02047496530558663</v>
+        <v>0.01941316686096332</v>
       </c>
       <c r="AV22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX22">
         <v>0</v>
@@ -4795,13 +4807,13 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BC22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="BD22">
-        <v>0.01766929080437385</v>
+        <v>0.01765363504647115</v>
       </c>
       <c r="BE22">
         <v>2</v>
@@ -4819,13 +4831,13 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BM22">
-        <v>0.02111608004309591</v>
+        <v>0.01955253324909084</v>
       </c>
       <c r="BN22">
         <v>1</v>
@@ -4843,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4851,7 +4863,7 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.01640866563047999</v>
+        <v>0.01654206570149557</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -4869,19 +4881,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>89</v>
       </c>
       <c r="K23">
-        <v>0.01553426272587829</v>
+        <v>0.01406836678229611</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -4893,13 +4905,13 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T23">
-        <v>0.01742991644751901</v>
+        <v>0.01744598747257087</v>
       </c>
       <c r="U23">
         <v>2</v>
@@ -4917,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB23" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AC23">
-        <v>0.01915579974767759</v>
+        <v>0.01835969602722111</v>
       </c>
       <c r="AD23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -4941,19 +4953,19 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="AL23">
-        <v>0.01759550328526279</v>
+        <v>0.01758884741873307</v>
       </c>
       <c r="AM23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO23">
         <v>1</v>
@@ -4965,13 +4977,13 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AU23">
-        <v>0.02045533446636747</v>
+        <v>0.019196194707607</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -4989,13 +5001,13 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="BD23">
-        <v>0.01765586488102125</v>
+        <v>0.01764915241494797</v>
       </c>
       <c r="BE23">
         <v>2</v>
@@ -5013,13 +5025,13 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BM23">
-        <v>0.02105528518692577</v>
+        <v>0.01955253324909084</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -5037,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -5045,7 +5057,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.01639315918133603</v>
+        <v>0.01653814606164597</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -5063,13 +5075,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>90</v>
       </c>
       <c r="K24">
-        <v>0.01259360672103809</v>
+        <v>0.01406836678229611</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -5087,13 +5099,13 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="T24">
-        <v>0.01741682743067491</v>
+        <v>0.01744160964159413</v>
       </c>
       <c r="U24">
         <v>2</v>
@@ -5111,13 +5123,13 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AB24" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AC24">
-        <v>0.01898946196278404</v>
+        <v>0.01835969602722111</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -5135,19 +5147,19 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="AL24">
-        <v>0.01758632197304882</v>
+        <v>0.01751863330997506</v>
       </c>
       <c r="AM24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO24">
         <v>1</v>
@@ -5159,13 +5171,13 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AU24">
-        <v>0.02039644194870998</v>
+        <v>0.019196194707607</v>
       </c>
       <c r="AV24">
         <v>1</v>
@@ -5183,55 +5195,55 @@
         <v>0</v>
       </c>
       <c r="BA24">
+        <v>2</v>
+      </c>
+      <c r="BC24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD24">
+        <v>0.01759432872847157</v>
+      </c>
+      <c r="BE24">
+        <v>1</v>
+      </c>
+      <c r="BF24">
+        <v>1</v>
+      </c>
+      <c r="BG24">
+        <v>1</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ24">
+        <v>2</v>
+      </c>
+      <c r="BL24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM24">
+        <v>0.01952996829438906</v>
+      </c>
+      <c r="BN24">
+        <v>1</v>
+      </c>
+      <c r="BO24">
+        <v>1</v>
+      </c>
+      <c r="BP24">
+        <v>0</v>
+      </c>
+      <c r="BQ24">
+        <v>1</v>
+      </c>
+      <c r="BR24" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS24">
         <v>4</v>
-      </c>
-      <c r="BC24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD24">
-        <v>0.01764691426545285</v>
-      </c>
-      <c r="BE24">
-        <v>2</v>
-      </c>
-      <c r="BF24">
-        <v>2</v>
-      </c>
-      <c r="BG24">
-        <v>1</v>
-      </c>
-      <c r="BH24">
-        <v>0</v>
-      </c>
-      <c r="BI24" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ24">
-        <v>15</v>
-      </c>
-      <c r="BL24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM24">
-        <v>0.02103502023486905</v>
-      </c>
-      <c r="BN24">
-        <v>1</v>
-      </c>
-      <c r="BO24">
-        <v>1</v>
-      </c>
-      <c r="BP24">
-        <v>0</v>
-      </c>
-      <c r="BQ24">
-        <v>1</v>
-      </c>
-      <c r="BR24" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS24">
-        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -5239,7 +5251,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.01638152934447806</v>
+        <v>0.01653422642179637</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -5257,13 +5269,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>91</v>
       </c>
       <c r="K25">
-        <v>0.01258153231382712</v>
+        <v>0.014052130929114</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -5281,13 +5293,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="T25">
-        <v>0.01740810141944552</v>
+        <v>0.01734529736010566</v>
       </c>
       <c r="U25">
         <v>2</v>
@@ -5305,13 +5317,13 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="AB25" s="1" t="s">
         <v>91</v>
       </c>
       <c r="AC25">
-        <v>0.01897125538372097</v>
+        <v>0.01833850768789368</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5329,13 +5341,13 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AL25">
-        <v>0.01757743670137886</v>
+        <v>0.01749089945904924</v>
       </c>
       <c r="AM25">
         <v>2</v>
@@ -5353,13 +5365,13 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AU25">
-        <v>0.02037681110949082</v>
+        <v>0.01917404099184519</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5377,19 +5389,19 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC25" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="BD25">
-        <v>0.01763796364988445</v>
+        <v>0.01758984609694839</v>
       </c>
       <c r="BE25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG25">
         <v>1</v>
@@ -5401,13 +5413,13 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BM25">
-        <v>0.02101475528281234</v>
+        <v>0.01952996829438906</v>
       </c>
       <c r="BN25">
         <v>1</v>
@@ -5425,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5433,7 +5445,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01637377611990607</v>
+        <v>0.01644799434510525</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -5451,13 +5463,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>92</v>
       </c>
       <c r="K26">
-        <v>0.01254530909219422</v>
+        <v>0.014052130929114</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -5478,16 +5490,16 @@
         <v>4</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T26">
-        <v>0.01739937540821612</v>
+        <v>0.01718298658373807</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W26">
         <v>1</v>
@@ -5499,13 +5511,13 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AB26" s="1" t="s">
         <v>92</v>
       </c>
       <c r="AC26">
-        <v>0.01891663564653176</v>
+        <v>0.01833850768789368</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5526,16 +5538,16 @@
         <v>4</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AL26">
-        <v>0.0175685514297089</v>
+        <v>0.01747480644359351</v>
       </c>
       <c r="AM26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO26">
         <v>1</v>
@@ -5547,13 +5559,13 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AU26">
-        <v>0.02035718027027166</v>
+        <v>0.01917404099184519</v>
       </c>
       <c r="AV26">
         <v>1</v>
@@ -5571,19 +5583,19 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC26" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="BD26">
-        <v>0.01762453772653185</v>
+        <v>0.01758088083390203</v>
       </c>
       <c r="BE26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG26">
         <v>1</v>
@@ -5595,13 +5607,13 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BM26">
-        <v>0.02099449033075563</v>
+        <v>0.01952996829438906</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5619,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5627,7 +5639,7 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.01636602289533409</v>
+        <v>0.01621673559397905</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -5645,13 +5657,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K27">
-        <v>0.01253323468498325</v>
+        <v>0.014052130929114</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -5669,19 +5681,19 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T27">
-        <v>0.01738628639137202</v>
+        <v>0.01717860875276132</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <v>1</v>
@@ -5693,13 +5705,13 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AB27" s="1" t="s">
         <v>93</v>
       </c>
       <c r="AC27">
-        <v>0.01889842906746868</v>
+        <v>0.01833850768789368</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -5717,85 +5729,85 @@
         <v>0</v>
       </c>
       <c r="AI27">
+        <v>4</v>
+      </c>
+      <c r="AK27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL27">
+        <v>0.01747035426360788</v>
+      </c>
+      <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
+        <v>1</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>3</v>
+      </c>
+      <c r="AT27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU27">
+        <v>0.01917404099184519</v>
+      </c>
+      <c r="AV27">
+        <v>1</v>
+      </c>
+      <c r="AW27">
+        <v>1</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>1</v>
+      </c>
+      <c r="AZ27" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>4</v>
+      </c>
+      <c r="BC27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD27">
+        <v>0.01758088083390203</v>
+      </c>
+      <c r="BE27">
+        <v>1</v>
+      </c>
+      <c r="BF27">
+        <v>1</v>
+      </c>
+      <c r="BG27">
+        <v>1</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ27">
         <v>5</v>
       </c>
-      <c r="AK27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL27">
-        <v>0.01755522352220395</v>
-      </c>
-      <c r="AM27">
-        <v>2</v>
-      </c>
-      <c r="AN27">
-        <v>2</v>
-      </c>
-      <c r="AO27">
-        <v>1</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>20</v>
-      </c>
-      <c r="AT27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU27">
-        <v>0.0203375494310525</v>
-      </c>
-      <c r="AV27">
-        <v>1</v>
-      </c>
-      <c r="AW27">
-        <v>1</v>
-      </c>
-      <c r="AX27">
-        <v>0</v>
-      </c>
-      <c r="AY27">
-        <v>1</v>
-      </c>
-      <c r="AZ27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA27">
-        <v>7</v>
-      </c>
-      <c r="BC27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD27">
-        <v>0.01757453366855009</v>
-      </c>
-      <c r="BE27">
-        <v>1</v>
-      </c>
-      <c r="BF27">
-        <v>1</v>
-      </c>
-      <c r="BG27">
-        <v>1</v>
-      </c>
-      <c r="BH27">
-        <v>0</v>
-      </c>
-      <c r="BI27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ27">
-        <v>0</v>
-      </c>
       <c r="BL27" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BM27">
-        <v>0.02091343052252877</v>
+        <v>0.01952996829438906</v>
       </c>
       <c r="BN27">
         <v>1</v>
@@ -5813,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5821,7 +5833,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.01635439305847612</v>
+        <v>0.0154524058233077</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -5839,13 +5851,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>94</v>
       </c>
       <c r="K28">
-        <v>0.01252116027777229</v>
+        <v>0.014052130929114</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -5863,19 +5875,19 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T28">
-        <v>0.01732956731838094</v>
+        <v>0.01716985309080783</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <v>1</v>
@@ -5887,13 +5899,13 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="AB28" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AC28">
-        <v>0.01888022248840561</v>
+        <v>0.01833850768789368</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -5911,19 +5923,19 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK28" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AL28">
-        <v>0.01749746925634918</v>
+        <v>0.01746144990363662</v>
       </c>
       <c r="AM28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO28">
         <v>1</v>
@@ -5935,13 +5947,13 @@
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AU28">
-        <v>0.02025902607417585</v>
+        <v>0.01917404099184519</v>
       </c>
       <c r="AV28">
         <v>1</v>
@@ -5959,13 +5971,13 @@
         <v>0</v>
       </c>
       <c r="BA28">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BC28" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="BD28">
-        <v>0.0175700583607659</v>
+        <v>0.01757191557085568</v>
       </c>
       <c r="BE28">
         <v>1</v>
@@ -5983,13 +5995,13 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="BM28">
-        <v>0.02091343052252877</v>
+        <v>0.01952996829438906</v>
       </c>
       <c r="BN28">
         <v>1</v>
@@ -6007,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -6015,13 +6027,13 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.01630399709875823</v>
+        <v>0.0153845864096668</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -6033,13 +6045,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>95</v>
       </c>
       <c r="K29">
-        <v>0.01250908587056132</v>
+        <v>0.014052130929114</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -6057,19 +6069,19 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="T29">
-        <v>0.01725946824534382</v>
+        <v>0.01716985309080783</v>
       </c>
       <c r="U29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W29">
         <v>1</v>
@@ -6081,13 +6093,13 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="AB29" s="1" t="s">
         <v>95</v>
       </c>
       <c r="AC29">
-        <v>0.01886201590934254</v>
+        <v>0.01833850768789368</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -6105,13 +6117,13 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AK29" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL29">
-        <v>0.01744623092397489</v>
+        <v>0.01746144990363662</v>
       </c>
       <c r="AM29">
         <v>1</v>
@@ -6129,13 +6141,13 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AU29">
-        <v>0.02025902607417585</v>
+        <v>0.01917404099184519</v>
       </c>
       <c r="AV29">
         <v>1</v>
@@ -6153,19 +6165,19 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BC29" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="BD29">
-        <v>0.01756635872533727</v>
+        <v>0.0175674329393325</v>
       </c>
       <c r="BE29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG29">
         <v>1</v>
@@ -6177,13 +6189,13 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BM29">
-        <v>0.02089316557047205</v>
+        <v>0.01951868581703817</v>
       </c>
       <c r="BN29">
         <v>1</v>
@@ -6201,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -6209,7 +6221,7 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.01522345644708769</v>
+        <v>0.0153806667698172</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -6227,13 +6239,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K30">
-        <v>0.01246078824171746</v>
+        <v>0.01404401300252294</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -6251,13 +6263,13 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T30">
-        <v>0.01713352304892144</v>
+        <v>0.01716109742885433</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -6275,13 +6287,13 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB30" s="1" t="s">
         <v>96</v>
       </c>
       <c r="AC30">
-        <v>0.01878918959309025</v>
+        <v>0.01832791351822996</v>
       </c>
       <c r="AD30">
         <v>1</v>
@@ -6299,13 +6311,13 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AK30" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL30">
-        <v>0.0174417882881399</v>
+        <v>0.01745254554366537</v>
       </c>
       <c r="AM30">
         <v>1</v>
@@ -6323,13 +6335,13 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AU30">
-        <v>0.02023939523495668</v>
+        <v>0.01916296413396429</v>
       </c>
       <c r="AV30">
         <v>1</v>
@@ -6347,13 +6359,13 @@
         <v>0</v>
       </c>
       <c r="BA30">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BC30" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BD30">
-        <v>0.0175566324374133</v>
+        <v>0.0175674329393325</v>
       </c>
       <c r="BE30">
         <v>1</v>
@@ -6371,13 +6383,13 @@
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BL30" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BM30">
-        <v>0.02087290061841534</v>
+        <v>0.01950740333968728</v>
       </c>
       <c r="BN30">
         <v>1</v>
@@ -6395,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="BS30">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -6403,7 +6415,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.0152195798348017</v>
+        <v>0.01537282749011801</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6421,13 +6433,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K31">
-        <v>0.01246078824171746</v>
+        <v>0.01403589507593189</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -6445,13 +6457,13 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T31">
-        <v>0.01712916004330674</v>
+        <v>0.01715671959787758</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -6469,13 +6481,13 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AB31" s="1" t="s">
         <v>97</v>
       </c>
       <c r="AC31">
-        <v>0.01878918959309025</v>
+        <v>0.01831731934856624</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -6493,85 +6505,85 @@
         <v>0</v>
       </c>
       <c r="AI31">
+        <v>6</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL31">
+        <v>0.01744809336367974</v>
+      </c>
+      <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
+        <v>1</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>8</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU31">
+        <v>0.01915188727608338</v>
+      </c>
+      <c r="AV31">
+        <v>1</v>
+      </c>
+      <c r="AW31">
+        <v>1</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>1</v>
+      </c>
+      <c r="AZ31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>6</v>
+      </c>
+      <c r="BC31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD31">
+        <v>0.01755398504476297</v>
+      </c>
+      <c r="BE31">
+        <v>1</v>
+      </c>
+      <c r="BF31">
+        <v>1</v>
+      </c>
+      <c r="BG31">
+        <v>1</v>
+      </c>
+      <c r="BH31">
+        <v>0</v>
+      </c>
+      <c r="BI31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ31">
         <v>11</v>
       </c>
-      <c r="AK31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL31">
-        <v>0.01742846038063496</v>
-      </c>
-      <c r="AM31">
-        <v>1</v>
-      </c>
-      <c r="AN31">
-        <v>1</v>
-      </c>
-      <c r="AO31">
-        <v>1</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
-      </c>
-      <c r="AQ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>4</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU31">
-        <v>0.02021976439573752</v>
-      </c>
-      <c r="AV31">
-        <v>1</v>
-      </c>
-      <c r="AW31">
-        <v>1</v>
-      </c>
-      <c r="AX31">
-        <v>0</v>
-      </c>
-      <c r="AY31">
-        <v>1</v>
-      </c>
-      <c r="AZ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA31">
-        <v>13</v>
-      </c>
-      <c r="BC31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD31">
-        <v>0.0175566324374133</v>
-      </c>
-      <c r="BE31">
-        <v>1</v>
-      </c>
-      <c r="BF31">
-        <v>1</v>
-      </c>
-      <c r="BG31">
-        <v>1</v>
-      </c>
-      <c r="BH31">
-        <v>0</v>
-      </c>
-      <c r="BI31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ31">
-        <v>4</v>
-      </c>
       <c r="BL31" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="BM31">
-        <v>0.02087290061841534</v>
+        <v>0.01950740333968728</v>
       </c>
       <c r="BN31">
         <v>1</v>
@@ -6589,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="BS31">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -6597,7 +6609,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01520794999794373</v>
+        <v>0.01537282749011801</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -6615,13 +6627,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>98</v>
       </c>
       <c r="K32">
-        <v>0.01244871383450649</v>
+        <v>0.01403589507593189</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -6639,13 +6651,13 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T32">
-        <v>0.01711607102646264</v>
+        <v>0.01715671959787758</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -6663,13 +6675,13 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AB32" s="1" t="s">
         <v>98</v>
       </c>
       <c r="AC32">
-        <v>0.01877098301402718</v>
+        <v>0.01831731934856624</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -6687,13 +6699,13 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AK32" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AL32">
-        <v>0.01742846038063496</v>
+        <v>0.01744809336367974</v>
       </c>
       <c r="AM32">
         <v>1</v>
@@ -6711,13 +6723,13 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AU32">
-        <v>0.02021976439573752</v>
+        <v>0.01915188727608338</v>
       </c>
       <c r="AV32">
         <v>1</v>
@@ -6735,19 +6747,19 @@
         <v>0</v>
       </c>
       <c r="BA32">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BC32" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="BD32">
-        <v>0.0175455335311274</v>
+        <v>0.01755053452143807</v>
       </c>
       <c r="BE32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BG32">
         <v>1</v>
@@ -6759,13 +6771,13 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="BL32" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BM32">
-        <v>0.02087290061841534</v>
+        <v>0.0194848383849855</v>
       </c>
       <c r="BN32">
         <v>1</v>
@@ -6783,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="BS32">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:71">
@@ -6791,7 +6803,7 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01520794999794373</v>
+        <v>0.01536498821041882</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6809,13 +6821,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>99</v>
       </c>
       <c r="K33">
-        <v>0.01243663942729552</v>
+        <v>0.01401965922274978</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -6833,13 +6845,13 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T33">
-        <v>0.01711607102646264</v>
+        <v>0.01714358610494734</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6857,13 +6869,13 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AB33" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AC33">
-        <v>0.01875277643496411</v>
+        <v>0.01829613100923881</v>
       </c>
       <c r="AD33">
         <v>1</v>
@@ -6881,13 +6893,13 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AK33" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL33">
-        <v>0.01741068983729503</v>
+        <v>0.01743473682372285</v>
       </c>
       <c r="AM33">
         <v>1</v>
@@ -6905,37 +6917,37 @@
         <v>0</v>
       </c>
       <c r="AR33">
+        <v>11</v>
+      </c>
+      <c r="AT33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU33">
+        <v>0.01912973356032158</v>
+      </c>
+      <c r="AV33">
+        <v>1</v>
+      </c>
+      <c r="AW33">
+        <v>1</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>1</v>
+      </c>
+      <c r="AZ33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA33">
         <v>8</v>
       </c>
-      <c r="AT33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU33">
-        <v>0.02021976439573752</v>
-      </c>
-      <c r="AV33">
-        <v>1</v>
-      </c>
-      <c r="AW33">
-        <v>1</v>
-      </c>
-      <c r="AX33">
-        <v>0</v>
-      </c>
-      <c r="AY33">
-        <v>1</v>
-      </c>
-      <c r="AZ33" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA33">
-        <v>13</v>
-      </c>
       <c r="BC33" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="BD33">
-        <v>0.0175387312062765</v>
+        <v>0.01754950241323979</v>
       </c>
       <c r="BE33">
         <v>1</v>
@@ -6953,13 +6965,13 @@
         <v>0</v>
       </c>
       <c r="BJ33">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BL33" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BM33">
-        <v>0.02073104595401834</v>
+        <v>0.01947355590763461</v>
       </c>
       <c r="BN33">
         <v>1</v>
@@ -6977,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="BS33">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:71">
@@ -6985,7 +6997,7 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.01519244354879976</v>
+        <v>0.01536106857056922</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -7009,7 +7021,7 @@
         <v>100</v>
       </c>
       <c r="K34">
-        <v>0.01243663942729552</v>
+        <v>0.01401154129615873</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -7027,13 +7039,13 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T34">
-        <v>0.01709861900400385</v>
+        <v>0.01713920827397059</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -7051,13 +7063,13 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AB34" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AC34">
-        <v>0.01875277643496411</v>
+        <v>0.01828553683957509</v>
       </c>
       <c r="AD34">
         <v>1</v>
@@ -7075,13 +7087,13 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AK34" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AL34">
-        <v>0.01741068983729503</v>
+        <v>0.01743028464373722</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -7099,19 +7111,19 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AU34">
-        <v>0.0201932474634818</v>
+        <v>0.01911865670244067</v>
       </c>
       <c r="AV34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX34">
         <v>0</v>
@@ -7123,13 +7135,13 @@
         <v>0</v>
       </c>
       <c r="BA34">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="BC34" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="BD34">
-        <v>0.0175387312062765</v>
+        <v>0.01754950241323979</v>
       </c>
       <c r="BE34">
         <v>1</v>
@@ -7147,13 +7159,13 @@
         <v>0</v>
       </c>
       <c r="BJ34">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BL34" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BM34">
-        <v>0.02069051604990492</v>
+        <v>0.01945099095293283</v>
       </c>
       <c r="BN34">
         <v>1</v>
@@ -7171,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="BS34">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:71">
@@ -7179,7 +7191,7 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.01519244354879976</v>
+        <v>0.01536106857056922</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -7203,7 +7215,7 @@
         <v>101</v>
       </c>
       <c r="K35">
-        <v>0.01243663942729552</v>
+        <v>0.01399530544297662</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -7221,13 +7233,13 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="T35">
-        <v>0.01709861900400385</v>
+        <v>0.01713920827397059</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -7245,13 +7257,13 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AB35" s="1" t="s">
         <v>101</v>
       </c>
       <c r="AC35">
-        <v>0.01875277643496411</v>
+        <v>0.01826434850024766</v>
       </c>
       <c r="AD35">
         <v>1</v>
@@ -7269,103 +7281,103 @@
         <v>0</v>
       </c>
       <c r="AI35">
+        <v>11</v>
+      </c>
+      <c r="AK35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL35">
+        <v>0.01743028464373722</v>
+      </c>
+      <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
+        <v>1</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>12</v>
+      </c>
+      <c r="AT35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU35">
+        <v>0.01909650298667886</v>
+      </c>
+      <c r="AV35">
+        <v>1</v>
+      </c>
+      <c r="AW35">
+        <v>1</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>1</v>
+      </c>
+      <c r="AZ35" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>11</v>
+      </c>
+      <c r="BC35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD35">
+        <v>0.01754501978171661</v>
+      </c>
+      <c r="BE35">
+        <v>1</v>
+      </c>
+      <c r="BF35">
+        <v>1</v>
+      </c>
+      <c r="BG35">
+        <v>1</v>
+      </c>
+      <c r="BH35">
+        <v>0</v>
+      </c>
+      <c r="BI35" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ35">
         <v>13</v>
       </c>
-      <c r="AK35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL35">
-        <v>0.01739736192979008</v>
-      </c>
-      <c r="AM35">
-        <v>1</v>
-      </c>
-      <c r="AN35">
-        <v>1</v>
-      </c>
-      <c r="AO35">
-        <v>1</v>
-      </c>
-      <c r="AP35">
-        <v>0</v>
-      </c>
-      <c r="AQ35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR35">
+      <c r="BL35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM35">
+        <v>0.01945099095293283</v>
+      </c>
+      <c r="BN35">
+        <v>1</v>
+      </c>
+      <c r="BO35">
+        <v>1</v>
+      </c>
+      <c r="BP35">
+        <v>0</v>
+      </c>
+      <c r="BQ35">
+        <v>1</v>
+      </c>
+      <c r="BR35" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS35">
         <v>11</v>
-      </c>
-      <c r="AT35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU35">
-        <v>0.02008234852120338</v>
-      </c>
-      <c r="AV35">
-        <v>1</v>
-      </c>
-      <c r="AW35">
-        <v>1</v>
-      </c>
-      <c r="AX35">
-        <v>0</v>
-      </c>
-      <c r="AY35">
-        <v>1</v>
-      </c>
-      <c r="AZ35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA35">
-        <v>20</v>
-      </c>
-      <c r="BC35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD35">
-        <v>0.0175253052829239</v>
-      </c>
-      <c r="BE35">
-        <v>1</v>
-      </c>
-      <c r="BF35">
-        <v>1</v>
-      </c>
-      <c r="BG35">
-        <v>1</v>
-      </c>
-      <c r="BH35">
-        <v>0</v>
-      </c>
-      <c r="BI35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ35">
-        <v>11</v>
-      </c>
-      <c r="BL35" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BM35">
-        <v>0.02057408284488477</v>
-      </c>
-      <c r="BN35">
-        <v>2</v>
-      </c>
-      <c r="BO35">
-        <v>2</v>
-      </c>
-      <c r="BP35">
-        <v>0</v>
-      </c>
-      <c r="BQ35">
-        <v>1</v>
-      </c>
-      <c r="BR35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS35">
-        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:71">
@@ -7373,7 +7385,7 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01518081371194179</v>
+        <v>0.01534930965102043</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -7397,7 +7409,7 @@
         <v>102</v>
       </c>
       <c r="K36">
-        <v>0.01235211857681876</v>
+        <v>0.01399530544297662</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -7415,13 +7427,13 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="T36">
-        <v>0.01708552998715976</v>
+        <v>0.01713483044299384</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -7439,13 +7451,13 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB36" s="1" t="s">
         <v>102</v>
       </c>
       <c r="AC36">
-        <v>0.0186253303815226</v>
+        <v>0.01826434850024766</v>
       </c>
       <c r="AD36">
         <v>1</v>
@@ -7463,13 +7475,13 @@
         <v>0</v>
       </c>
       <c r="AI36">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AK36" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AL36">
-        <v>0.0173929192939551</v>
+        <v>0.01742583246375159</v>
       </c>
       <c r="AM36">
         <v>1</v>
@@ -7487,61 +7499,61 @@
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU36">
+        <v>0.01909650298667886</v>
+      </c>
+      <c r="AV36">
+        <v>1</v>
+      </c>
+      <c r="AW36">
+        <v>1</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>1</v>
+      </c>
+      <c r="AZ36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>11</v>
+      </c>
+      <c r="BC36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD36">
+        <v>0.01754501978171661</v>
+      </c>
+      <c r="BE36">
+        <v>1</v>
+      </c>
+      <c r="BF36">
+        <v>1</v>
+      </c>
+      <c r="BG36">
+        <v>1</v>
+      </c>
+      <c r="BH36">
+        <v>0</v>
+      </c>
+      <c r="BI36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ36">
+        <v>13</v>
+      </c>
+      <c r="BL36" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AU36">
-        <v>0.02004308684276505</v>
-      </c>
-      <c r="AV36">
-        <v>1</v>
-      </c>
-      <c r="AW36">
-        <v>1</v>
-      </c>
-      <c r="AX36">
-        <v>0</v>
-      </c>
-      <c r="AY36">
-        <v>1</v>
-      </c>
-      <c r="AZ36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA36">
-        <v>22</v>
-      </c>
-      <c r="BC36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BD36">
-        <v>0.0175208299751397</v>
-      </c>
-      <c r="BE36">
-        <v>1</v>
-      </c>
-      <c r="BF36">
-        <v>1</v>
-      </c>
-      <c r="BG36">
-        <v>1</v>
-      </c>
-      <c r="BH36">
-        <v>0</v>
-      </c>
-      <c r="BI36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ36">
-        <v>12</v>
-      </c>
-      <c r="BL36" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="BM36">
-        <v>0.02056892633756463</v>
+        <v>0.01942842599823105</v>
       </c>
       <c r="BN36">
         <v>1</v>
@@ -7559,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="BS36">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:71">
@@ -7567,7 +7579,7 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.0151769370996558</v>
+        <v>0.01534539001117084</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -7591,7 +7603,7 @@
         <v>103</v>
       </c>
       <c r="K37">
-        <v>0.01232796976239682</v>
+        <v>0.01397906958979451</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -7609,13 +7621,13 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="T37">
-        <v>0.01708116698154506</v>
+        <v>0.01713483044299384</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -7633,13 +7645,13 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB37" s="1" t="s">
         <v>103</v>
       </c>
       <c r="AC37">
-        <v>0.01858891722339646</v>
+        <v>0.01824316016092023</v>
       </c>
       <c r="AD37">
         <v>1</v>
@@ -7657,13 +7669,13 @@
         <v>0</v>
       </c>
       <c r="AI37">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AK37" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL37">
-        <v>0.01738847665812012</v>
+        <v>0.01742583246375159</v>
       </c>
       <c r="AM37">
         <v>1</v>
@@ -7684,16 +7696,16 @@
         <v>13</v>
       </c>
       <c r="AT37" s="1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="AU37">
-        <v>0.01999693907129018</v>
+        <v>0.01907434927091705</v>
       </c>
       <c r="AV37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX37">
         <v>0</v>
@@ -7705,13 +7717,13 @@
         <v>0</v>
       </c>
       <c r="BA37">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="BC37" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BD37">
-        <v>0.01751635466735551</v>
+        <v>0.01754501978171661</v>
       </c>
       <c r="BE37">
         <v>1</v>
@@ -7732,10 +7744,10 @@
         <v>13</v>
       </c>
       <c r="BL37" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BM37">
-        <v>0.02056892633756463</v>
+        <v>0.01941714352088016</v>
       </c>
       <c r="BN37">
         <v>1</v>
@@ -7753,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="BS37">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:71">
@@ -7761,7 +7773,7 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.0151730604873698</v>
+        <v>0.01534539001117084</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -7779,13 +7791,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>104</v>
       </c>
       <c r="K38">
-        <v>0.01225552331913102</v>
+        <v>0.01397095166320346</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -7803,13 +7815,13 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T38">
-        <v>0.01707680397593036</v>
+        <v>0.01713483044299384</v>
       </c>
       <c r="U38">
         <v>1</v>
@@ -7833,7 +7845,7 @@
         <v>104</v>
       </c>
       <c r="AC38">
-        <v>0.01847967774901803</v>
+        <v>0.01823256599125651</v>
       </c>
       <c r="AD38">
         <v>1</v>
@@ -7851,13 +7863,13 @@
         <v>0</v>
       </c>
       <c r="AI38">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AK38" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AL38">
-        <v>0.01738847665812012</v>
+        <v>0.01742583246375159</v>
       </c>
       <c r="AM38">
         <v>1</v>
@@ -7881,7 +7893,7 @@
         <v>104</v>
       </c>
       <c r="AU38">
-        <v>0.01992530180745008</v>
+        <v>0.01906327241303615</v>
       </c>
       <c r="AV38">
         <v>1</v>
@@ -7899,13 +7911,13 @@
         <v>0</v>
       </c>
       <c r="BA38">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="BC38" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="BD38">
-        <v>0.01751635466735551</v>
+        <v>0.01753605451867026</v>
       </c>
       <c r="BE38">
         <v>1</v>
@@ -7923,13 +7935,13 @@
         <v>0</v>
       </c>
       <c r="BJ38">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BL38" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BM38">
-        <v>0.02046760157728106</v>
+        <v>0.01941714352088016</v>
       </c>
       <c r="BN38">
         <v>1</v>
@@ -7947,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="BS38">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:71">
@@ -7955,7 +7967,7 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.0151730604873698</v>
+        <v>0.01534147037132124</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -7979,7 +7991,7 @@
         <v>105</v>
       </c>
       <c r="K39">
-        <v>0.01225552331913102</v>
+        <v>0.01397095166320346</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -7997,13 +8009,13 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="T39">
-        <v>0.01707680397593036</v>
+        <v>0.01712607478104034</v>
       </c>
       <c r="U39">
         <v>1</v>
@@ -8021,13 +8033,13 @@
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB39" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AC39">
-        <v>0.01847967774901803</v>
+        <v>0.01823256599125651</v>
       </c>
       <c r="AD39">
         <v>1</v>
@@ -8045,13 +8057,13 @@
         <v>0</v>
       </c>
       <c r="AI39">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AK39" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL39">
-        <v>0.01738403402228514</v>
+        <v>0.01741692810378034</v>
       </c>
       <c r="AM39">
         <v>1</v>
@@ -8069,13 +8081,13 @@
         <v>0</v>
       </c>
       <c r="AR39">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT39" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AU39">
-        <v>0.01992530180745008</v>
+        <v>0.01906327241303615</v>
       </c>
       <c r="AV39">
         <v>1</v>
@@ -8093,13 +8105,13 @@
         <v>0</v>
       </c>
       <c r="BA39">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="BC39" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="BD39">
-        <v>0.01751187935957131</v>
+        <v>0.01753157188714708</v>
       </c>
       <c r="BE39">
         <v>1</v>
@@ -8117,31 +8129,31 @@
         <v>0</v>
       </c>
       <c r="BJ39">
+        <v>16</v>
+      </c>
+      <c r="BL39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM39">
+        <v>0.01941714352088016</v>
+      </c>
+      <c r="BN39">
+        <v>1</v>
+      </c>
+      <c r="BO39">
+        <v>1</v>
+      </c>
+      <c r="BP39">
+        <v>0</v>
+      </c>
+      <c r="BQ39">
+        <v>1</v>
+      </c>
+      <c r="BR39" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS39">
         <v>14</v>
-      </c>
-      <c r="BL39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BM39">
-        <v>0.02037143332431763</v>
-      </c>
-      <c r="BN39">
-        <v>2</v>
-      </c>
-      <c r="BO39">
-        <v>2</v>
-      </c>
-      <c r="BP39">
-        <v>0</v>
-      </c>
-      <c r="BQ39">
-        <v>1</v>
-      </c>
-      <c r="BR39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS39">
-        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:71">
@@ -8149,7 +8161,7 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01516918387508381</v>
+        <v>0.01534147037132124</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -8167,13 +8179,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>106</v>
       </c>
       <c r="K40">
-        <v>0.01219515128307619</v>
+        <v>0.01397095166320346</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -8191,13 +8203,13 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="T40">
-        <v>0.01707244097031566</v>
+        <v>0.01712169695006359</v>
       </c>
       <c r="U40">
         <v>1</v>
@@ -8215,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AB40" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AC40">
-        <v>0.01838864485370267</v>
+        <v>0.01823256599125651</v>
       </c>
       <c r="AD40">
         <v>1</v>
@@ -8239,13 +8251,13 @@
         <v>0</v>
       </c>
       <c r="AI40">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="AK40" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AL40">
-        <v>0.01737959138645015</v>
+        <v>0.0174124759237947</v>
       </c>
       <c r="AM40">
         <v>1</v>
@@ -8263,13 +8275,13 @@
         <v>0</v>
       </c>
       <c r="AR40">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT40" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AU40">
-        <v>0.01982714761135427</v>
+        <v>0.01906327241303615</v>
       </c>
       <c r="AV40">
         <v>1</v>
@@ -8287,13 +8299,13 @@
         <v>0</v>
       </c>
       <c r="BA40">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="BC40" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="BD40">
-        <v>0.01750740405178711</v>
+        <v>0.01752260662410073</v>
       </c>
       <c r="BE40">
         <v>1</v>
@@ -8311,13 +8323,13 @@
         <v>0</v>
       </c>
       <c r="BJ40">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BL40" s="1" t="s">
         <v>107</v>
       </c>
       <c r="BM40">
-        <v>0.02032574691288407</v>
+        <v>0.01940586104352928</v>
       </c>
       <c r="BN40">
         <v>1</v>
@@ -8335,7 +8347,7 @@
         <v>0</v>
       </c>
       <c r="BS40">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:71">
@@ -8343,7 +8355,7 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01516530726279782</v>
+        <v>0.01534147037132124</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -8361,13 +8373,13 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>107</v>
       </c>
       <c r="K41">
-        <v>0.01211063043259943</v>
+        <v>0.01396283373661241</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -8385,13 +8397,13 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T41">
-        <v>0.01706807796470096</v>
+        <v>0.0171129412881101</v>
       </c>
       <c r="U41">
         <v>1</v>
@@ -8409,13 +8421,13 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AB41" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AC41">
-        <v>0.01826119880026117</v>
+        <v>0.01822197182159279</v>
       </c>
       <c r="AD41">
         <v>1</v>
@@ -8433,13 +8445,13 @@
         <v>0</v>
       </c>
       <c r="AI41">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="AK41" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL41">
-        <v>0.01737959138645015</v>
+        <v>0.01740357156382345</v>
       </c>
       <c r="AM41">
         <v>1</v>
@@ -8457,13 +8469,13 @@
         <v>0</v>
       </c>
       <c r="AR41">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AT41" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AU41">
-        <v>0.01968973173682013</v>
+        <v>0.01905219555515525</v>
       </c>
       <c r="AV41">
         <v>1</v>
@@ -8481,13 +8493,13 @@
         <v>0</v>
       </c>
       <c r="BA41">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="BC41" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="BD41">
-        <v>0.01750740405178711</v>
+        <v>0.01752260662410073</v>
       </c>
       <c r="BE41">
         <v>1</v>
@@ -8505,13 +8517,13 @@
         <v>0</v>
       </c>
       <c r="BJ41">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BL41" s="1" t="s">
         <v>108</v>
       </c>
       <c r="BM41">
-        <v>0.02014336234437364</v>
+        <v>0.01934944865677483</v>
       </c>
       <c r="BN41">
         <v>1</v>
@@ -8529,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="BS41">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:71">
@@ -8537,7 +8549,7 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>0.01516530726279782</v>
+        <v>0.01533363109162205</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -8561,7 +8573,7 @@
         <v>108</v>
       </c>
       <c r="K42">
-        <v>0.01200196076770073</v>
+        <v>0.01392224410365714</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -8579,13 +8591,13 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T42">
-        <v>0.01706807796470096</v>
+        <v>0.0171129412881101</v>
       </c>
       <c r="U42">
         <v>1</v>
@@ -8603,13 +8615,13 @@
         <v>0</v>
       </c>
       <c r="Z42">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AB42" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AC42">
-        <v>0.01809733958869352</v>
+        <v>0.01816900097327421</v>
       </c>
       <c r="AD42">
         <v>1</v>
@@ -8627,13 +8639,13 @@
         <v>0</v>
       </c>
       <c r="AI42">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="AK42" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AL42">
-        <v>0.01736182084311022</v>
+        <v>0.01740357156382345</v>
       </c>
       <c r="AM42">
         <v>1</v>
@@ -8651,13 +8663,13 @@
         <v>0</v>
       </c>
       <c r="AR42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT42" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AU42">
-        <v>0.01951305418384766</v>
+        <v>0.01899681126575073</v>
       </c>
       <c r="AV42">
         <v>1</v>
@@ -8675,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="BA42">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="BC42" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="BD42">
-        <v>0.01748950282065031</v>
+        <v>0.01750019346648484</v>
       </c>
       <c r="BE42">
         <v>1</v>
@@ -8699,13 +8711,13 @@
         <v>0</v>
       </c>
       <c r="BJ42">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BL42" s="1" t="s">
         <v>109</v>
       </c>
       <c r="BM42">
-        <v>0.02006230253614679</v>
+        <v>0.01924790636061683</v>
       </c>
       <c r="BN42">
         <v>1</v>
@@ -8723,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="BS42">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:71">
@@ -8731,7 +8743,7 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>0.01514980081365386</v>
+        <v>0.01532971145177245</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -8749,13 +8761,13 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>109</v>
       </c>
       <c r="K43">
-        <v>0.01195366313885686</v>
+        <v>0.01384918276433765</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -8773,13 +8785,13 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T43">
-        <v>0.01705062594224217</v>
+        <v>0.01709105213322636</v>
       </c>
       <c r="U43">
         <v>1</v>
@@ -8797,13 +8809,13 @@
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AB43" s="1" t="s">
         <v>109</v>
       </c>
       <c r="AC43">
-        <v>0.01802451327244123</v>
+        <v>0.01807365344630076</v>
       </c>
       <c r="AD43">
         <v>1</v>
@@ -8821,13 +8833,13 @@
         <v>0</v>
       </c>
       <c r="AI43">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="AK43" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AL43">
-        <v>0.01735737820727524</v>
+        <v>0.0173813106638953</v>
       </c>
       <c r="AM43">
         <v>1</v>
@@ -8845,13 +8857,13 @@
         <v>0</v>
       </c>
       <c r="AR43">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AT43" s="1" t="s">
         <v>109</v>
       </c>
       <c r="AU43">
-        <v>0.01943453082697101</v>
+        <v>0.01889711954482259</v>
       </c>
       <c r="AV43">
         <v>1</v>
@@ -8869,13 +8881,13 @@
         <v>0</v>
       </c>
       <c r="BA43">
+        <v>29</v>
+      </c>
+      <c r="BC43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC43" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="BD43">
-        <v>0.01748502751286611</v>
+        <v>0.01749571083496166</v>
       </c>
       <c r="BE43">
         <v>1</v>
@@ -8893,19 +8905,19 @@
         <v>0</v>
       </c>
       <c r="BJ43">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BL43" s="1" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="BM43">
-        <v>0.01982201172925688</v>
+        <v>0.01921405892856416</v>
       </c>
       <c r="BN43">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="BO43">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="BP43">
         <v>0</v>
@@ -8917,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="BS43">
-        <v>1065</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:71">
@@ -8925,7 +8937,7 @@
         <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01514592420136787</v>
+        <v>0.01532187217207326</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -8943,19 +8955,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>110</v>
       </c>
       <c r="K44">
-        <v>0.0117428988616348</v>
+        <v>0.01382482898456449</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -8967,19 +8979,19 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>383</v>
+        <v>32</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="T44">
-        <v>0.01704626293662747</v>
+        <v>0.0170870053324775</v>
       </c>
       <c r="U44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W44">
         <v>1</v>
@@ -8991,13 +9003,13 @@
         <v>0</v>
       </c>
       <c r="Z44">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AB44" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC44">
-        <v>0.01727804353085528</v>
+        <v>0.01804187093730961</v>
       </c>
       <c r="AD44">
         <v>1</v>
@@ -9015,13 +9027,13 @@
         <v>0</v>
       </c>
       <c r="AI44">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="AK44" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AL44">
-        <v>0.01734849293560528</v>
+        <v>0.01737685848390967</v>
       </c>
       <c r="AM44">
         <v>1</v>
@@ -9039,13 +9051,13 @@
         <v>0</v>
       </c>
       <c r="AR44">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT44" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AU44">
-        <v>0.01862966641898535</v>
+        <v>0.01886388897117987</v>
       </c>
       <c r="AV44">
         <v>1</v>
@@ -9063,13 +9075,13 @@
         <v>0</v>
       </c>
       <c r="BA44">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="BC44" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="BD44">
-        <v>0.01747607689729772</v>
+        <v>0.01748226294039213</v>
       </c>
       <c r="BE44">
         <v>1</v>
@@ -9087,13 +9099,13 @@
         <v>0</v>
       </c>
       <c r="BJ44">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="BL44" s="1" t="s">
         <v>111</v>
       </c>
       <c r="BM44">
-        <v>0.01923143950182151</v>
+        <v>0.0190673867230026</v>
       </c>
       <c r="BN44">
         <v>1</v>
@@ -9111,7 +9123,7 @@
         <v>0</v>
       </c>
       <c r="BS44">
-        <v>94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:71">
@@ -9119,7 +9131,7 @@
         <v>51</v>
       </c>
       <c r="B45">
-        <v>0.01513817097679588</v>
+        <v>0.01532187217207326</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -9137,13 +9149,13 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>111</v>
       </c>
       <c r="K45">
-        <v>0.01145861244320723</v>
+        <v>0.01371929593888079</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -9161,13 +9173,13 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T45">
-        <v>0.01703753692539807</v>
+        <v>0.01708667430224961</v>
       </c>
       <c r="U45">
         <v>1</v>
@@ -9185,13 +9197,13 @@
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC45">
-        <v>0.01691391194959384</v>
+        <v>0.01790414673168129</v>
       </c>
       <c r="AD45">
         <v>1</v>
@@ -9209,13 +9221,13 @@
         <v>0</v>
       </c>
       <c r="AI45">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="AK45" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL45">
-        <v>0.0173440502997703</v>
+        <v>0.01736350194395279</v>
       </c>
       <c r="AM45">
         <v>1</v>
@@ -9233,13 +9245,13 @@
         <v>0</v>
       </c>
       <c r="AR45">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AT45" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AU45">
-        <v>0.01823704963460209</v>
+        <v>0.01871988981872812</v>
       </c>
       <c r="AV45">
         <v>1</v>
@@ -9257,13 +9269,13 @@
         <v>0</v>
       </c>
       <c r="BA45">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="BC45" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="BD45">
-        <v>0.01747160158951351</v>
+        <v>0.01747329767734578</v>
       </c>
       <c r="BE45">
         <v>1</v>
@@ -9281,13 +9293,13 @@
         <v>0</v>
       </c>
       <c r="BJ45">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BL45" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BM45">
-        <v>0.01882614046068724</v>
+        <v>0.01904482176830082</v>
       </c>
       <c r="BN45">
         <v>1</v>
@@ -9305,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="BS45">
-        <v>114</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:71">
@@ -9313,7 +9325,7 @@
         <v>52</v>
       </c>
       <c r="B46">
-        <v>0.01513429436450989</v>
+        <v>0.01530227397282527</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -9337,7 +9349,7 @@
         <v>112</v>
       </c>
       <c r="K46">
-        <v>0.0112171242989879</v>
+        <v>0.01370306008569869</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -9355,13 +9367,13 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T46">
-        <v>0.01703317391978337</v>
+        <v>0.01707354080931936</v>
       </c>
       <c r="U46">
         <v>1</v>
@@ -9379,13 +9391,13 @@
         <v>0</v>
       </c>
       <c r="Z46">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AB46" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC46">
-        <v>0.01540276588735887</v>
+        <v>0.01788295839235386</v>
       </c>
       <c r="AD46">
         <v>1</v>
@@ -9403,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="AI46">
-        <v>197</v>
+        <v>47</v>
       </c>
       <c r="AK46" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AL46">
-        <v>0.01733960766393532</v>
+        <v>0.01735459758398153</v>
       </c>
       <c r="AM46">
         <v>1</v>
@@ -9427,13 +9439,13 @@
         <v>0</v>
       </c>
       <c r="AR46">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AT46" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AU46">
-        <v>0.01660768997941159</v>
+        <v>0.01869773610296631</v>
       </c>
       <c r="AV46">
         <v>1</v>
@@ -9451,19 +9463,19 @@
         <v>0</v>
       </c>
       <c r="BA46">
-        <v>197</v>
+        <v>47</v>
       </c>
       <c r="BC46" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="BD46">
-        <v>0.01746712628172932</v>
+        <v>0.01745846347584789</v>
       </c>
       <c r="BE46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BG46">
         <v>1</v>
@@ -9475,13 +9487,13 @@
         <v>0</v>
       </c>
       <c r="BJ46">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="BL46" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BM46">
-        <v>0.01714414943997998</v>
+        <v>0.01889814956273927</v>
       </c>
       <c r="BN46">
         <v>1</v>
@@ -9499,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="BS46">
-        <v>197</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:71">
@@ -9507,7 +9519,7 @@
         <v>53</v>
       </c>
       <c r="B47">
-        <v>0.0151304177522239</v>
+        <v>0.01529835433297567</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -9531,7 +9543,7 @@
         <v>113</v>
       </c>
       <c r="K47">
-        <v>0.01021494850047768</v>
+        <v>0.01359752704001499</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -9549,13 +9561,13 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>197</v>
+        <v>60</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T47">
-        <v>0.01702881091416867</v>
+        <v>0.01706478514736586</v>
       </c>
       <c r="U47">
         <v>1</v>
@@ -9573,19 +9585,19 @@
         <v>0</v>
       </c>
       <c r="Z47">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AB47" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AC47">
-        <v>0.013438933921873</v>
+        <v>0.01774523418672554</v>
       </c>
       <c r="AD47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -9597,13 +9609,13 @@
         <v>0</v>
       </c>
       <c r="AI47">
-        <v>383</v>
+        <v>60</v>
       </c>
       <c r="AK47" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AL47">
-        <v>0.01730850921309044</v>
+        <v>0.01727891052422584</v>
       </c>
       <c r="AM47">
         <v>1</v>
@@ -9621,13 +9633,13 @@
         <v>0</v>
       </c>
       <c r="AR47">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="AT47" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AU47">
-        <v>0.01431088179076956</v>
+        <v>0.01855373695051456</v>
       </c>
       <c r="AV47">
         <v>1</v>
@@ -9645,13 +9657,13 @@
         <v>0</v>
       </c>
       <c r="BA47">
-        <v>314</v>
+        <v>60</v>
       </c>
       <c r="BC47" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="BD47">
-        <v>0.01743579912723992</v>
+        <v>0.01739709294145176</v>
       </c>
       <c r="BE47">
         <v>1</v>
@@ -9669,13 +9681,13 @@
         <v>0</v>
       </c>
       <c r="BJ47">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="BL47" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BM47">
-        <v>0.01477315004934445</v>
+        <v>0.01874019487982682</v>
       </c>
       <c r="BN47">
         <v>1</v>
@@ -9693,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="BS47">
-        <v>314</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:71">
@@ -9701,7 +9713,7 @@
         <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01510328146622196</v>
+        <v>0.01528659541342689</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -9719,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>114</v>
       </c>
       <c r="K48">
-        <v>0.008802242856794599</v>
+        <v>0.01348387606774023</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -9743,13 +9755,13 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>314</v>
+        <v>74</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T48">
-        <v>0.01699826987486578</v>
+        <v>0.01699036202076114</v>
       </c>
       <c r="U48">
         <v>1</v>
@@ -9767,13 +9779,13 @@
         <v>0</v>
       </c>
       <c r="Z48">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="AB48" s="1" t="s">
         <v>114</v>
       </c>
       <c r="AC48">
-        <v>0.01327259613697945</v>
+        <v>0.0175969158114335</v>
       </c>
       <c r="AD48">
         <v>1</v>
@@ -9791,19 +9803,19 @@
         <v>0</v>
       </c>
       <c r="AI48">
-        <v>314</v>
+        <v>74</v>
       </c>
       <c r="AK48" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="AL48">
-        <v>0.01727770680278956</v>
+        <v>0.01722822083989713</v>
       </c>
       <c r="AM48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO48">
         <v>1</v>
@@ -9815,19 +9827,19 @@
         <v>0</v>
       </c>
       <c r="AR48">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="AT48" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AU48">
-        <v>0.01383285555647311</v>
+        <v>0.0183986609401819</v>
       </c>
       <c r="AV48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX48">
         <v>0</v>
@@ -9839,19 +9851,19 @@
         <v>0</v>
       </c>
       <c r="BA48">
-        <v>383</v>
+        <v>74</v>
       </c>
       <c r="BC48" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="BD48">
-        <v>0.01738209543382953</v>
+        <v>0.01728605926157059</v>
       </c>
       <c r="BE48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG48">
         <v>1</v>
@@ -9863,31 +9875,31 @@
         <v>0</v>
       </c>
       <c r="BJ48">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="BL48" s="1" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="BM48">
-        <v>0.01418546643969974</v>
+        <v>0.01828889578579125</v>
       </c>
       <c r="BN48">
         <v>1</v>
       </c>
       <c r="BO48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP48">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BQ48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BR48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS48">
-        <v>343</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:71">
@@ -9895,7 +9907,7 @@
         <v>55</v>
       </c>
       <c r="B49">
-        <v>0.01505676211879007</v>
+        <v>0.01527875613372769</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -9913,37 +9925,37 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K49">
-        <v>0.008452085047676569</v>
+        <v>0.01315915900409808</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
       <c r="M49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N49">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>343</v>
+        <v>114</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T49">
-        <v>0.0169459138074894</v>
+        <v>0.01687653841536568</v>
       </c>
       <c r="U49">
         <v>1</v>
@@ -9961,37 +9973,37 @@
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="AC49">
-        <v>0.01274460534415037</v>
+        <v>0.01717314902488484</v>
       </c>
       <c r="AD49">
         <v>1</v>
       </c>
       <c r="AE49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF49">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI49">
-        <v>343</v>
+        <v>114</v>
       </c>
       <c r="AK49" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AL49">
-        <v>0.01725519758307065</v>
+        <v>0.01716315384459949</v>
       </c>
       <c r="AM49">
         <v>1</v>
@@ -10009,37 +10021,37 @@
         <v>0</v>
       </c>
       <c r="AR49">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="AT49" s="1" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="AU49">
-        <v>0.01374158745341385</v>
+        <v>0.01795558662494573</v>
       </c>
       <c r="AV49">
         <v>1</v>
       </c>
       <c r="AW49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX49">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AY49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AZ49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA49">
-        <v>343</v>
+        <v>114</v>
       </c>
       <c r="BC49" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BD49">
-        <v>0.01736866951047693</v>
+        <v>0.01728054452184914</v>
       </c>
       <c r="BE49">
         <v>1</v>
@@ -10057,19 +10069,19 @@
         <v>0</v>
       </c>
       <c r="BJ49">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="BL49" s="1" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="BM49">
-        <v>0.01400823837850946</v>
+        <v>0.01810099133593256</v>
       </c>
       <c r="BN49">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="BO49">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="BP49">
         <v>0</v>
@@ -10081,7 +10093,7 @@
         <v>0</v>
       </c>
       <c r="BS49">
-        <v>383</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="50" spans="1:71">
@@ -10089,7 +10101,7 @@
         <v>56</v>
       </c>
       <c r="B50">
-        <v>0.01504513228193209</v>
+        <v>0.01521212225628455</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -10110,10 +10122,10 @@
         <v>46</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K50">
-        <v>0.002004351597020445</v>
+        <v>0.01179534733680106</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -10131,19 +10143,19 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>877</v>
+        <v>282</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="T50">
-        <v>0.0169328247906453</v>
+        <v>0.01683779999703071</v>
       </c>
       <c r="U50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W50">
         <v>1</v>
@@ -10155,13 +10167,13 @@
         <v>0</v>
       </c>
       <c r="Z50">
-        <v>46</v>
+        <v>237</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC50">
-        <v>0.003022292124469946</v>
+        <v>0.01539332852138042</v>
       </c>
       <c r="AD50">
         <v>1</v>
@@ -10179,13 +10191,13 @@
         <v>0</v>
       </c>
       <c r="AI50">
-        <v>877</v>
+        <v>282</v>
       </c>
       <c r="AK50" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AL50">
-        <v>0.01724186967556571</v>
+        <v>0.01702958844503062</v>
       </c>
       <c r="AM50">
         <v>1</v>
@@ -10203,13 +10215,13 @@
         <v>0</v>
       </c>
       <c r="AR50">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="AT50" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AU50">
-        <v>0.003258719310380999</v>
+        <v>0.01609467450095382</v>
       </c>
       <c r="AV50">
         <v>1</v>
@@ -10227,13 +10239,13 @@
         <v>0</v>
       </c>
       <c r="BA50">
-        <v>877</v>
+        <v>282</v>
       </c>
       <c r="BC50" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BD50">
-        <v>0.01729706458592975</v>
+        <v>0.01714606557615382</v>
       </c>
       <c r="BE50">
         <v>1</v>
@@ -10251,13 +10263,13 @@
         <v>0</v>
       </c>
       <c r="BJ50">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="BL50" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BM50">
-        <v>0.003363982041414513</v>
+        <v>0.01639343959084189</v>
       </c>
       <c r="BN50">
         <v>1</v>
@@ -10275,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="BS50">
-        <v>877</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:71">
@@ -10283,7 +10295,7 @@
         <v>57</v>
       </c>
       <c r="B51">
-        <v>0.01498310648535623</v>
+        <v>0.01511021162019504</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -10301,13 +10313,13 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K51">
-        <v>0.0009901013912992568</v>
+        <v>0.01096731882451358</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -10325,13 +10337,13 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>961</v>
+        <v>384</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T51">
-        <v>0.01686301670081012</v>
+        <v>0.01674520348606322</v>
       </c>
       <c r="U51">
         <v>1</v>
@@ -10349,13 +10361,13 @@
         <v>0</v>
       </c>
       <c r="Z51">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AB51" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC51">
-        <v>0.001492939483171901</v>
+        <v>0.01431272321568131</v>
       </c>
       <c r="AD51">
         <v>1</v>
@@ -10373,13 +10385,13 @@
         <v>0</v>
       </c>
       <c r="AI51">
-        <v>961</v>
+        <v>384</v>
       </c>
       <c r="AK51" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AL51">
-        <v>0.01717078750220599</v>
+        <v>0.01701623190507373</v>
       </c>
       <c r="AM51">
         <v>1</v>
@@ -10397,13 +10409,13 @@
         <v>0</v>
       </c>
       <c r="AR51">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="AT51" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AU51">
-        <v>0.001609728815971338</v>
+        <v>0.01496483499710159</v>
       </c>
       <c r="AV51">
         <v>1</v>
@@ -10421,19 +10433,19 @@
         <v>0</v>
       </c>
       <c r="BA51">
-        <v>961</v>
+        <v>384</v>
       </c>
       <c r="BC51" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="BD51">
-        <v>0.01728519000728829</v>
+        <v>0.01713261768158429</v>
       </c>
       <c r="BE51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BG51">
         <v>1</v>
@@ -10445,13 +10457,13 @@
         <v>0</v>
       </c>
       <c r="BJ51">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="BL51" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BM51">
-        <v>0.001661726068650543</v>
+        <v>0.01524262690105119</v>
       </c>
       <c r="BN51">
         <v>1</v>
@@ -10469,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="BS51">
-        <v>961</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52" spans="1:71">
@@ -10477,7 +10489,7 @@
         <v>58</v>
       </c>
       <c r="B52">
-        <v>0.01488619117820645</v>
+        <v>0.01499262242470714</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -10495,37 +10507,37 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>0.01085460266345763</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N52">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="O52">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>1043</v>
+        <v>710</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T52">
-        <v>0.01675394156044266</v>
+        <v>0.01673206999313297</v>
       </c>
       <c r="U52">
         <v>1</v>
@@ -10543,37 +10555,37 @@
         <v>0</v>
       </c>
       <c r="Z52">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="AB52" s="1" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="AC52">
-        <v>0</v>
+        <v>0.011706557478407</v>
       </c>
       <c r="AD52">
         <v>1</v>
       </c>
       <c r="AE52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF52">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AG52">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AH52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI52">
-        <v>1043</v>
+        <v>630</v>
       </c>
       <c r="AK52" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL52">
-        <v>0.01705972160633144</v>
+        <v>0.01693164048534678</v>
       </c>
       <c r="AM52">
         <v>1</v>
@@ -10591,37 +10603,37 @@
         <v>0</v>
       </c>
       <c r="AR52">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="AT52" s="1" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="AU52">
-        <v>0</v>
+        <v>0.01223992795839916</v>
       </c>
       <c r="AV52">
         <v>1</v>
       </c>
       <c r="AW52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX52">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AY52">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AZ52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA52">
-        <v>1043</v>
+        <v>630</v>
       </c>
       <c r="BC52" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BD52">
-        <v>0.01718518189132477</v>
+        <v>0.01704744768264391</v>
       </c>
       <c r="BE52">
         <v>1</v>
@@ -10639,31 +10651,31 @@
         <v>0</v>
       </c>
       <c r="BJ52">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="BL52" s="1" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="BM52">
-        <v>0</v>
+        <v>0.01246713747273247</v>
       </c>
       <c r="BN52">
         <v>1</v>
       </c>
       <c r="BO52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BP52">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="BQ52">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="BR52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS52">
-        <v>1043</v>
+        <v>630</v>
       </c>
     </row>
     <row r="53" spans="1:71">
@@ -10671,7 +10683,7 @@
         <v>59</v>
       </c>
       <c r="B53">
-        <v>0.01483967183077456</v>
+        <v>0.01498086350515835</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -10689,13 +10701,37 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>99</v>
+        <v>105</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K53">
+        <v>0.008970308883114364</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>630</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T53">
-        <v>0.01670158549306628</v>
+        <v>0.01664889120457475</v>
       </c>
       <c r="U53">
         <v>1</v>
@@ -10713,19 +10749,43 @@
         <v>0</v>
       </c>
       <c r="Z53">
-        <v>99</v>
+        <v>124</v>
+      </c>
+      <c r="AB53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC53">
+        <v>0.01168567412916984</v>
+      </c>
+      <c r="AD53">
+        <v>2</v>
+      </c>
+      <c r="AE53">
+        <v>2</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>1</v>
+      </c>
+      <c r="AH53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>710</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="AL53">
-        <v>0.01700640997631165</v>
+        <v>0.01682580893670374</v>
       </c>
       <c r="AM53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO53">
         <v>1</v>
@@ -10737,13 +10797,37 @@
         <v>0</v>
       </c>
       <c r="AR53">
-        <v>99</v>
+        <v>237</v>
+      </c>
+      <c r="AT53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU53">
+        <v>0.01184767292830574</v>
+      </c>
+      <c r="AV53">
+        <v>2</v>
+      </c>
+      <c r="AW53">
+        <v>2</v>
+      </c>
+      <c r="AX53">
+        <v>0</v>
+      </c>
+      <c r="AY53">
+        <v>1</v>
+      </c>
+      <c r="AZ53" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA53">
+        <v>710</v>
       </c>
       <c r="BC53" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BD53">
-        <v>0.01713147819791438</v>
+        <v>0.01691745136847177</v>
       </c>
       <c r="BE53">
         <v>1</v>
@@ -10761,7 +10845,31 @@
         <v>0</v>
       </c>
       <c r="BJ53">
-        <v>99</v>
+        <v>153</v>
+      </c>
+      <c r="BL53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BM53">
+        <v>0.0119166825001793</v>
+      </c>
+      <c r="BN53">
+        <v>2</v>
+      </c>
+      <c r="BO53">
+        <v>2</v>
+      </c>
+      <c r="BP53">
+        <v>0</v>
+      </c>
+      <c r="BQ53">
+        <v>1</v>
+      </c>
+      <c r="BR53" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS53">
+        <v>710</v>
       </c>
     </row>
     <row r="54" spans="1:71">
@@ -10769,7 +10877,7 @@
         <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01406822598586229</v>
+        <v>0.01490639034801601</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -10787,13 +10895,37 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>298</v>
+        <v>124</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K54">
+        <v>0.007331422522940312</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>0.33</v>
+      </c>
+      <c r="O54">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1144</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T54">
-        <v>0.01583334737574126</v>
+        <v>0.01652193410624904</v>
       </c>
       <c r="U54">
         <v>1</v>
@@ -10811,13 +10943,37 @@
         <v>0</v>
       </c>
       <c r="Z54">
-        <v>298</v>
+        <v>153</v>
+      </c>
+      <c r="AB54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC54">
+        <v>0.007087804495116778</v>
+      </c>
+      <c r="AD54">
+        <v>2</v>
+      </c>
+      <c r="AE54">
+        <v>3</v>
+      </c>
+      <c r="AF54">
+        <v>0.33</v>
+      </c>
+      <c r="AG54">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="AH54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI54">
+        <v>1144</v>
       </c>
       <c r="AK54" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL54">
-        <v>0.0161223254451502</v>
+        <v>0.01680252726576354</v>
       </c>
       <c r="AM54">
         <v>1</v>
@@ -10835,19 +10991,43 @@
         <v>0</v>
       </c>
       <c r="AR54">
-        <v>298</v>
+        <v>153</v>
+      </c>
+      <c r="AT54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU54">
+        <v>0.007040316607993317</v>
+      </c>
+      <c r="AV54">
+        <v>2</v>
+      </c>
+      <c r="AW54">
+        <v>3</v>
+      </c>
+      <c r="AX54">
+        <v>0.33</v>
+      </c>
+      <c r="AY54">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="AZ54" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA54">
+        <v>1144</v>
       </c>
       <c r="BC54" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="BD54">
-        <v>0.01624089194885875</v>
+        <v>0.01682089769135841</v>
       </c>
       <c r="BE54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG54">
         <v>1</v>
@@ -10859,7 +11039,31 @@
         <v>0</v>
       </c>
       <c r="BJ54">
-        <v>298</v>
+        <v>237</v>
+      </c>
+      <c r="BL54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM54">
+        <v>0.007020087329893422</v>
+      </c>
+      <c r="BN54">
+        <v>2</v>
+      </c>
+      <c r="BO54">
+        <v>3</v>
+      </c>
+      <c r="BP54">
+        <v>0.33</v>
+      </c>
+      <c r="BQ54">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="BR54" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS54">
+        <v>1144</v>
       </c>
     </row>
     <row r="55" spans="1:71">
@@ -10867,97 +11071,193 @@
         <v>61</v>
       </c>
       <c r="B55">
-        <v>0.01389377843299269</v>
+        <v>0.01479272079237771</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>343</v>
+        <v>153</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>1735</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T55">
-        <v>0.01563701212307982</v>
+        <v>0.01632493171229536</v>
       </c>
       <c r="U55">
         <v>1</v>
       </c>
       <c r="V55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W55">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X55">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z55">
-        <v>343</v>
+        <v>198</v>
+      </c>
+      <c r="AB55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>1</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>1</v>
+      </c>
+      <c r="AH55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>1735</v>
       </c>
       <c r="AK55" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL55">
-        <v>0.01592240683257601</v>
+        <v>0.01660217916641024</v>
       </c>
       <c r="AM55">
         <v>1</v>
       </c>
       <c r="AN55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO55">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP55">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AQ55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR55">
-        <v>343</v>
+        <v>198</v>
+      </c>
+      <c r="AT55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU55">
+        <v>0</v>
+      </c>
+      <c r="AV55">
+        <v>1</v>
+      </c>
+      <c r="AW55">
+        <v>1</v>
+      </c>
+      <c r="AX55">
+        <v>0</v>
+      </c>
+      <c r="AY55">
+        <v>1</v>
+      </c>
+      <c r="AZ55" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA55">
+        <v>1735</v>
       </c>
       <c r="BC55" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BD55">
-        <v>0.01603950309856978</v>
+        <v>0.01671573294992878</v>
       </c>
       <c r="BE55">
         <v>1</v>
       </c>
       <c r="BF55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG55">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BH55">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BI55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ55">
-        <v>343</v>
+        <v>198</v>
+      </c>
+      <c r="BL55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM55">
+        <v>0</v>
+      </c>
+      <c r="BN55">
+        <v>1</v>
+      </c>
+      <c r="BO55">
+        <v>1</v>
+      </c>
+      <c r="BP55">
+        <v>0</v>
+      </c>
+      <c r="BQ55">
+        <v>1</v>
+      </c>
+      <c r="BR55" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS55">
+        <v>1735</v>
       </c>
     </row>
     <row r="56" spans="1:71">
@@ -10965,7 +11265,7 @@
         <v>62</v>
       </c>
       <c r="B56">
-        <v>0.01378910990127092</v>
+        <v>0.01461633699914586</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -10983,19 +11283,19 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>370</v>
+        <v>198</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="T56">
-        <v>0.01551921097148296</v>
+        <v>0.01623332829201152</v>
       </c>
       <c r="U56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W56">
         <v>1</v>
@@ -11007,19 +11307,19 @@
         <v>0</v>
       </c>
       <c r="Z56">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="AK56" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="AL56">
-        <v>0.01580245566503149</v>
+        <v>0.01636004574269949</v>
       </c>
       <c r="AM56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO56">
         <v>1</v>
@@ -11031,19 +11331,19 @@
         <v>0</v>
       </c>
       <c r="AR56">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="BC56" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="BD56">
-        <v>0.01591866978839641</v>
+        <v>0.01641194611455099</v>
       </c>
       <c r="BE56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG56">
         <v>1</v>
@@ -11055,7 +11355,7 @@
         <v>0</v>
       </c>
       <c r="BJ56">
-        <v>370</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:71">
@@ -11063,7 +11363,7 @@
         <v>63</v>
       </c>
       <c r="B57">
-        <v>0.01287035278949099</v>
+        <v>0.01301320430066084</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -11087,7 +11387,7 @@
         <v>63</v>
       </c>
       <c r="T57">
-        <v>0.01448517864079938</v>
+        <v>0.0145343988428052</v>
       </c>
       <c r="U57">
         <v>1</v>
@@ -11111,7 +11411,7 @@
         <v>63</v>
       </c>
       <c r="AL57">
-        <v>0.01474955097214072</v>
+        <v>0.01478123755228801</v>
       </c>
       <c r="AM57">
         <v>1</v>
@@ -11135,7 +11435,7 @@
         <v>63</v>
       </c>
       <c r="BD57">
-        <v>0.0148580218435412</v>
+        <v>0.0148823366569492</v>
       </c>
       <c r="BE57">
         <v>1</v>
@@ -11161,97 +11461,97 @@
         <v>64</v>
       </c>
       <c r="B58">
-        <v>0.01238861868990705</v>
+        <v>0.01091619698112663</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>1043</v>
+        <v>1142</v>
       </c>
       <c r="S58" s="1" t="s">
         <v>64</v>
       </c>
       <c r="T58">
-        <v>0.01292293164753534</v>
+        <v>0.01219225927024472</v>
       </c>
       <c r="U58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W58">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="X58">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Y58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z58">
-        <v>1043</v>
+        <v>1142</v>
       </c>
       <c r="AK58" s="1" t="s">
         <v>64</v>
       </c>
       <c r="AL58">
-        <v>0.01301040706301721</v>
+        <v>0.01239932125997655</v>
       </c>
       <c r="AM58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO58">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP58">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AQ58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR58">
-        <v>1043</v>
+        <v>1142</v>
       </c>
       <c r="BC58" s="1" t="s">
         <v>64</v>
       </c>
       <c r="BD58">
-        <v>0.01304629786329611</v>
+        <v>0.01248412879204925</v>
       </c>
       <c r="BE58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BG58">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="BH58">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="BI58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ58">
-        <v>1043</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="59" spans="1:71">
@@ -11259,97 +11559,97 @@
         <v>65</v>
       </c>
       <c r="B59">
-        <v>0.0107808587673417</v>
+        <v>0.01090835770142744</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="S59" s="1" t="s">
         <v>65</v>
       </c>
       <c r="T59">
-        <v>0.01213351861447683</v>
+        <v>0.01218350360829122</v>
       </c>
       <c r="U59">
         <v>1</v>
       </c>
       <c r="V59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W59">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="X59">
-        <v>0</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="Y59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z59">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="AK59" s="1" t="s">
         <v>65</v>
       </c>
       <c r="AL59">
-        <v>0.01235497025708535</v>
+        <v>0.01239041690000528</v>
       </c>
       <c r="AM59">
         <v>1</v>
       </c>
       <c r="AN59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO59">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>0</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="AQ59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR59">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="BC59" s="1" t="s">
         <v>65</v>
       </c>
       <c r="BD59">
-        <v>0.01244583094785786</v>
+        <v>0.0124751635290029</v>
       </c>
       <c r="BE59">
         <v>1</v>
       </c>
       <c r="BF59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG59">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="BH59">
-        <v>0</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="BI59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ59">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="60" spans="1:71">
@@ -11357,13 +11657,13 @@
         <v>66</v>
       </c>
       <c r="B60">
-        <v>0.009268719883607007</v>
+        <v>0.005696422237661669</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -11375,19 +11675,19 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>2783</v>
+        <v>2786</v>
       </c>
       <c r="S60" s="1" t="s">
         <v>66</v>
       </c>
       <c r="T60">
-        <v>0.00635137224219342</v>
+        <v>0.005336906990884373</v>
       </c>
       <c r="U60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W60">
         <v>1</v>
@@ -11399,19 +11699,19 @@
         <v>0</v>
       </c>
       <c r="Z60">
-        <v>2783</v>
+        <v>2786</v>
       </c>
       <c r="AK60" s="1" t="s">
         <v>66</v>
       </c>
       <c r="AL60">
-        <v>0.005873756654934398</v>
+        <v>0.005278569758469108</v>
       </c>
       <c r="AM60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AN60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AO60">
         <v>1</v>
@@ -11423,19 +11723,19 @@
         <v>0</v>
       </c>
       <c r="AR60">
-        <v>2783</v>
+        <v>2786</v>
       </c>
       <c r="BC60" s="1" t="s">
         <v>66</v>
       </c>
       <c r="BD60">
-        <v>0.005677792959786805</v>
+        <v>0.005254676253362268</v>
       </c>
       <c r="BE60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BF60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BG60">
         <v>1</v>
@@ -11447,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="BJ60">
-        <v>2783</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="61" spans="1:71">
